--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisis\Github\AIRES_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E51CF1-E0D7-4D47-82D5-B7369FF970E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841B25D-0C05-4635-8B3B-C38C58DFC666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="31">
   <si>
     <t>Timestamp</t>
   </si>
@@ -64,43 +64,55 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>AP</t>
+    <t>all</t>
   </si>
   <si>
     <t>StratifiedKFold</t>
   </si>
   <si>
-    <t>LogisticRegression</t>
+    <t>CatBoostClassifier</t>
+  </si>
+  <si>
+    <t>StandardScaler standardization</t>
+  </si>
+  <si>
+    <t>Normalizer Normalization</t>
+  </si>
+  <si>
+    <t>MinMaxScaler Normalization</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>StandardScaler standardization, including 109</t>
   </si>
   <si>
     <t>including 109</t>
   </si>
   <si>
-    <t>RandomForestClassifier</t>
+    <t>LGBMClassifier</t>
+  </si>
+  <si>
+    <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>APB</t>
   </si>
   <si>
     <t>GradientBoostingClassifier</t>
   </si>
   <si>
-    <t>SVC</t>
-  </si>
-  <si>
     <t>KNeighborsClassifier</t>
   </si>
   <si>
-    <t>XGBClassifier</t>
+    <t>LogisticRegression</t>
   </si>
   <si>
-    <t>LGBMClassifier</t>
-  </si>
-  <si>
-    <t>CatBoostClassifier</t>
-  </si>
-  <si>
-    <t>APB</t>
-  </si>
-  <si>
-    <t>all</t>
+    <t>SVC</t>
   </si>
 </sst>
 </file>
@@ -468,19 +480,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -529,10 +538,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45442.663764985999</v>
+        <v>45442.663764988429</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -541,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>0.78522052452971702</v>
@@ -570,180 +579,186 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45442.661602876622</v>
+        <v>45443.4812125463</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>0.77957633427731676</v>
+        <v>0.78522052452971702</v>
       </c>
       <c r="G3">
-        <v>0.77985847636254146</v>
+        <v>0.78552243300210778</v>
       </c>
       <c r="H3">
-        <v>0.57192349661815411</v>
+        <v>0.58419929424305095</v>
       </c>
       <c r="I3">
-        <v>0.48902228878350018</v>
+        <v>0.47999653326677211</v>
       </c>
       <c r="J3">
-        <v>5.5</v>
+        <v>5.875</v>
       </c>
       <c r="K3">
-        <v>29.75</v>
+        <v>29.375</v>
       </c>
       <c r="L3">
-        <v>24.5625</v>
+        <v>25.5625</v>
       </c>
       <c r="M3">
-        <v>77.3125</v>
+        <v>76.3125</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45442.608092986113</v>
+        <v>45443.504500324882</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0.78522052452971702</v>
+      </c>
+      <c r="G4">
+        <v>0.78552243300210778</v>
+      </c>
+      <c r="H4">
+        <v>0.58419929424305095</v>
+      </c>
+      <c r="I4">
+        <v>0.47999653326677211</v>
+      </c>
+      <c r="J4">
+        <v>5.875</v>
+      </c>
+      <c r="K4">
+        <v>29.375</v>
+      </c>
+      <c r="L4">
+        <v>25.5625</v>
+      </c>
+      <c r="M4">
+        <v>76.3125</v>
+      </c>
+      <c r="N4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4">
-        <v>0.77300104420466409</v>
-      </c>
-      <c r="G4">
-        <v>0.77306722689075635</v>
-      </c>
-      <c r="H4">
-        <v>0.55812693441817518</v>
-      </c>
-      <c r="I4">
-        <v>0.48523809523809519</v>
-      </c>
-      <c r="J4">
-        <v>9.0625</v>
-      </c>
-      <c r="K4">
-        <v>26.4375</v>
-      </c>
-      <c r="L4">
-        <v>26.0625</v>
-      </c>
-      <c r="M4">
-        <v>79.6875</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45442.662021742733</v>
+        <v>45443.498024664354</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>0.76188196326407698</v>
+        <v>0.78522052452971702</v>
       </c>
       <c r="G5">
-        <v>0.7621830773863294</v>
+        <v>0.78552243300210778</v>
       </c>
       <c r="H5">
-        <v>0.53730311119986029</v>
+        <v>0.58419929424305095</v>
       </c>
       <c r="I5">
-        <v>0.47783856116704099</v>
+        <v>0.47999653326677211</v>
       </c>
       <c r="J5">
-        <v>6.125</v>
+        <v>5.875</v>
       </c>
       <c r="K5">
-        <v>29.125</v>
+        <v>29.375</v>
       </c>
       <c r="L5">
-        <v>27.125</v>
+        <v>25.5625</v>
       </c>
       <c r="M5">
-        <v>74.75</v>
+        <v>76.3125</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45442.609507337962</v>
+        <v>45443.502616135927</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>0.75669892098851377</v>
+        <v>0.77957633427731676</v>
       </c>
       <c r="G6">
-        <v>0.7568039215686273</v>
+        <v>0.77985847636254146</v>
       </c>
       <c r="H6">
-        <v>0.53022655603345947</v>
+        <v>0.57192349661815411</v>
       </c>
       <c r="I6">
-        <v>0.48305181191973651</v>
+        <v>0.48902228878350018</v>
       </c>
       <c r="J6">
-        <v>7.875</v>
+        <v>5.5</v>
       </c>
       <c r="K6">
-        <v>27.625</v>
+        <v>29.75</v>
       </c>
       <c r="L6">
-        <v>26.3125</v>
+        <v>24.5625</v>
       </c>
       <c r="M6">
-        <v>79.4375</v>
+        <v>77.3125</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45442.662000156954</v>
+        <v>45442.661602881948</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -752,165 +767,171 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>0.75180544702515884</v>
+        <v>0.77957633427731676</v>
       </c>
       <c r="G7">
-        <v>0.75214995483288161</v>
+        <v>0.77985847636254146</v>
       </c>
       <c r="H7">
-        <v>0.52097348390949993</v>
+        <v>0.57192349661815411</v>
       </c>
       <c r="I7">
-        <v>0.47138160874911023</v>
+        <v>0.48902228878350018</v>
       </c>
       <c r="J7">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>29.75</v>
       </c>
       <c r="L7">
-        <v>30.25</v>
+        <v>24.5625</v>
       </c>
       <c r="M7">
-        <v>71.625</v>
+        <v>77.3125</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45442.659747789352</v>
+        <v>45443.4789269213</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>0.74786698514565231</v>
+        <v>0.77957633427731676</v>
       </c>
       <c r="G8">
-        <v>0.74808792532369761</v>
+        <v>0.77985847636254146</v>
       </c>
       <c r="H8">
-        <v>0.51079584470497497</v>
+        <v>0.57192349661815411</v>
       </c>
       <c r="I8">
-        <v>0.47040662469608308</v>
+        <v>0.48902228878350018</v>
       </c>
       <c r="J8">
-        <v>7.375</v>
+        <v>5.5</v>
       </c>
       <c r="K8">
-        <v>27.875</v>
+        <v>29.75</v>
       </c>
       <c r="L8">
-        <v>26.9375</v>
+        <v>24.5625</v>
       </c>
       <c r="M8">
-        <v>74.9375</v>
+        <v>77.3125</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45442.658460081017</v>
+        <v>45443.496021087973</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>0.74883049491708287</v>
+        <v>0.77957633427731676</v>
       </c>
       <c r="G9">
-        <v>0.7490635350797954</v>
+        <v>0.77985847636254146</v>
       </c>
       <c r="H9">
-        <v>0.51042397892138947</v>
+        <v>0.57192349661815411</v>
       </c>
       <c r="I9">
-        <v>0.48869794122269372</v>
+        <v>0.48902228878350018</v>
       </c>
       <c r="J9">
-        <v>9.125</v>
+        <v>5.5</v>
       </c>
       <c r="K9">
-        <v>26.125</v>
+        <v>29.75</v>
       </c>
       <c r="L9">
-        <v>26.0625</v>
+        <v>24.5625</v>
       </c>
       <c r="M9">
-        <v>75.8125</v>
+        <v>77.3125</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45442.608315069447</v>
+        <v>45443.486852835653</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>0.77300104420466409</v>
+      </c>
+      <c r="G10">
+        <v>0.77306722689075635</v>
+      </c>
+      <c r="H10">
+        <v>0.55812693441817518</v>
+      </c>
+      <c r="I10">
+        <v>0.48523809523809519</v>
+      </c>
+      <c r="J10">
+        <v>9.0625</v>
+      </c>
+      <c r="K10">
+        <v>26.4375</v>
+      </c>
+      <c r="L10">
+        <v>26.0625</v>
+      </c>
+      <c r="M10">
+        <v>79.6875</v>
+      </c>
+      <c r="N10" t="s">
         <v>22</v>
-      </c>
-      <c r="F10">
-        <v>0.74181413156978748</v>
-      </c>
-      <c r="G10">
-        <v>0.7418963585434174</v>
-      </c>
-      <c r="H10">
-        <v>0.49598888130007468</v>
-      </c>
-      <c r="I10">
-        <v>0.45967654986522899</v>
-      </c>
-      <c r="J10">
-        <v>7.25</v>
-      </c>
-      <c r="K10">
-        <v>28.25</v>
-      </c>
-      <c r="L10">
-        <v>26.125</v>
-      </c>
-      <c r="M10">
-        <v>79.625</v>
-      </c>
-      <c r="N10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45442.608331805553</v>
+        <v>45442.608092986113</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -919,162 +940,171 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>0.77300104420466409</v>
+      </c>
+      <c r="G11">
+        <v>0.77306722689075635</v>
+      </c>
+      <c r="H11">
+        <v>0.55812693441817518</v>
+      </c>
+      <c r="I11">
+        <v>0.48523809523809519</v>
+      </c>
+      <c r="J11">
+        <v>9.0625</v>
+      </c>
+      <c r="K11">
+        <v>26.4375</v>
+      </c>
+      <c r="L11">
+        <v>26.0625</v>
+      </c>
+      <c r="M11">
+        <v>79.6875</v>
+      </c>
+      <c r="N11" t="s">
         <v>23</v>
-      </c>
-      <c r="F11">
-        <v>0.7415788374521407</v>
-      </c>
-      <c r="G11">
-        <v>0.74167226890756299</v>
-      </c>
-      <c r="H11">
-        <v>0.49544814525035058</v>
-      </c>
-      <c r="I11">
-        <v>0.47279574722970952</v>
-      </c>
-      <c r="J11">
-        <v>7.625</v>
-      </c>
-      <c r="K11">
-        <v>27.875</v>
-      </c>
-      <c r="L11">
-        <v>26.9375</v>
-      </c>
-      <c r="M11">
-        <v>78.8125</v>
-      </c>
-      <c r="N11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45442.658724814813</v>
+        <v>45443.479401932869</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>0.73682694066204468</v>
+        <v>0.76188196326407698</v>
       </c>
       <c r="G12">
-        <v>0.7370581150255946</v>
+        <v>0.7621830773863294</v>
       </c>
       <c r="H12">
-        <v>0.48649864439720869</v>
+        <v>0.53730311119986029</v>
       </c>
       <c r="I12">
-        <v>0.48403370589159761</v>
+        <v>0.47783856116704099</v>
       </c>
       <c r="J12">
-        <v>8.8125</v>
+        <v>6.125</v>
       </c>
       <c r="K12">
-        <v>26.4375</v>
+        <v>29.125</v>
       </c>
       <c r="L12">
-        <v>29.3125</v>
+        <v>27.125</v>
       </c>
       <c r="M12">
-        <v>72.5625</v>
+        <v>74.75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45442.658708043979</v>
+        <v>45443.49645204861</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>0.73461833323173042</v>
+        <v>0.76188196326407698</v>
       </c>
       <c r="G13">
-        <v>0.73480879253236964</v>
+        <v>0.7621830773863294</v>
       </c>
       <c r="H13">
-        <v>0.48137690061462279</v>
+        <v>0.53730311119986029</v>
       </c>
       <c r="I13">
-        <v>0.47882399164286171</v>
+        <v>0.47783856116704099</v>
       </c>
       <c r="J13">
-        <v>7.5</v>
+        <v>6.125</v>
       </c>
       <c r="K13">
-        <v>27.75</v>
+        <v>29.125</v>
       </c>
       <c r="L13">
-        <v>30.125</v>
+        <v>27.125</v>
       </c>
       <c r="M13">
-        <v>71.75</v>
+        <v>74.75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45442.661926006942</v>
+        <v>45443.503028237872</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>0.707813856052671</v>
+        <v>0.76188196326407698</v>
       </c>
       <c r="G14">
-        <v>0.70812405901836795</v>
+        <v>0.7621830773863294</v>
       </c>
       <c r="H14">
-        <v>0.42968989192887402</v>
+        <v>0.53730311119986029</v>
       </c>
       <c r="I14">
-        <v>0.47848281887012228</v>
+        <v>0.47783856116704099</v>
       </c>
       <c r="J14">
-        <v>7.9375</v>
+        <v>6.125</v>
       </c>
       <c r="K14">
-        <v>27.3125</v>
+        <v>29.125</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>27.125</v>
       </c>
       <c r="M14">
-        <v>67.875</v>
+        <v>74.75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45442.608266909723</v>
+        <v>45442.662021747688</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1086,83 +1116,83 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>0.69336860424643221</v>
+        <v>0.76188196326407698</v>
       </c>
       <c r="G15">
-        <v>0.69343137254901965</v>
+        <v>0.7621830773863294</v>
       </c>
       <c r="H15">
-        <v>0.40025040060374878</v>
+        <v>0.53730311119986029</v>
       </c>
       <c r="I15">
-        <v>0.4980218628331835</v>
+        <v>0.47783856116704099</v>
       </c>
       <c r="J15">
-        <v>11.6875</v>
+        <v>6.125</v>
       </c>
       <c r="K15">
-        <v>23.8125</v>
+        <v>29.125</v>
       </c>
       <c r="L15">
-        <v>36.4375</v>
+        <v>27.125</v>
       </c>
       <c r="M15">
-        <v>69.3125</v>
-      </c>
-      <c r="N15" t="s">
-        <v>17</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45442.658648194447</v>
+        <v>45443.488165763891</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>0.67148569338454123</v>
+        <v>0.75669892098851377</v>
       </c>
       <c r="G16">
-        <v>0.67179464016862389</v>
+        <v>0.7568039215686273</v>
       </c>
       <c r="H16">
-        <v>0.35278654980153268</v>
+        <v>0.53022655603345947</v>
       </c>
       <c r="I16">
-        <v>0.50153419123424947</v>
+        <v>0.48305181191973651</v>
       </c>
       <c r="J16">
-        <v>12.25</v>
+        <v>7.875</v>
       </c>
       <c r="K16">
-        <v>23</v>
+        <v>27.625</v>
       </c>
       <c r="L16">
-        <v>34.5625</v>
+        <v>26.3125</v>
       </c>
       <c r="M16">
-        <v>67.3125</v>
+        <v>79.4375</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45442.661957781856</v>
+        <v>45442.609507337962</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1171,83 +1201,86 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>0.64496130775895355</v>
+        <v>0.75669892098851377</v>
       </c>
       <c r="G17">
-        <v>0.64509485094850949</v>
+        <v>0.7568039215686273</v>
       </c>
       <c r="H17">
-        <v>0.30540645127535798</v>
+        <v>0.53022655603345947</v>
       </c>
       <c r="I17">
-        <v>0.49728665723715232</v>
+        <v>0.48305181191973651</v>
       </c>
       <c r="J17">
-        <v>16.5</v>
+        <v>7.875</v>
       </c>
       <c r="K17">
-        <v>18.75</v>
+        <v>27.625</v>
       </c>
       <c r="L17">
-        <v>49.4375</v>
+        <v>26.3125</v>
       </c>
       <c r="M17">
-        <v>52.4375</v>
+        <v>79.4375</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45442.608287604169</v>
+        <v>45443.503006663217</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>0.64557187608771316</v>
+        <v>0.75180544702515884</v>
       </c>
       <c r="G18">
-        <v>0.64558263305322128</v>
+        <v>0.75214995483288161</v>
       </c>
       <c r="H18">
-        <v>0.29930370689998631</v>
+        <v>0.52097348390949993</v>
       </c>
       <c r="I18">
-        <v>0.5032764300688829</v>
+        <v>0.47138160874911023</v>
       </c>
       <c r="J18">
-        <v>15.375</v>
+        <v>5.25</v>
       </c>
       <c r="K18">
-        <v>20.125</v>
+        <v>30</v>
       </c>
       <c r="L18">
-        <v>46.25</v>
+        <v>30.25</v>
       </c>
       <c r="M18">
-        <v>59.5</v>
+        <v>71.625</v>
       </c>
       <c r="N18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45442.658678402768</v>
+        <v>45442.662000162039</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1256,124 +1289,130 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>0.64418583729122902</v>
+        <v>0.75180544702515884</v>
       </c>
       <c r="G19">
-        <v>0.64424269798253531</v>
+        <v>0.75214995483288161</v>
       </c>
       <c r="H19">
-        <v>0.29502186755525017</v>
+        <v>0.52097348390949993</v>
       </c>
       <c r="I19">
-        <v>0.51847357424818108</v>
+        <v>0.47138160874911023</v>
       </c>
       <c r="J19">
-        <v>16.9375</v>
+        <v>5.25</v>
       </c>
       <c r="K19">
-        <v>18.3125</v>
+        <v>30</v>
       </c>
       <c r="L19">
-        <v>44.8125</v>
+        <v>30.25</v>
       </c>
       <c r="M19">
-        <v>57.0625</v>
+        <v>71.625</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45442.658325659722</v>
+        <v>45443.496427650462</v>
       </c>
       <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
       <c r="F20">
-        <v>0.52829205483602204</v>
+        <v>0.75180544702515884</v>
       </c>
       <c r="G20">
-        <v>0.52819632640770853</v>
+        <v>0.75214995483288161</v>
       </c>
       <c r="H20">
-        <v>5.7018676074543792E-2</v>
+        <v>0.52097348390949993</v>
       </c>
       <c r="I20">
-        <v>0.52035707352247829</v>
+        <v>0.47138160874911023</v>
       </c>
       <c r="J20">
-        <v>19.125</v>
+        <v>5.25</v>
       </c>
       <c r="K20">
-        <v>16.125</v>
+        <v>30</v>
       </c>
       <c r="L20">
-        <v>51.375</v>
+        <v>30.25</v>
       </c>
       <c r="M20">
-        <v>50.5</v>
+        <v>71.625</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45442.661447712657</v>
+        <v>45443.479363379629</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>0.5277831165496385</v>
+        <v>0.75180544702515884</v>
       </c>
       <c r="G21">
-        <v>0.52772357723577223</v>
+        <v>0.75214995483288161</v>
       </c>
       <c r="H21">
-        <v>5.6198568957304247E-2</v>
+        <v>0.52097348390949993</v>
       </c>
       <c r="I21">
-        <v>0.47357480285843712</v>
+        <v>0.47138160874911023</v>
       </c>
       <c r="J21">
-        <v>17.9375</v>
+        <v>5.25</v>
       </c>
       <c r="K21">
-        <v>17.3125</v>
+        <v>30</v>
       </c>
       <c r="L21">
-        <v>55.8125</v>
+        <v>30.25</v>
       </c>
       <c r="M21">
-        <v>46.0625</v>
+        <v>71.625</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45442.66194204874</v>
+        <v>45443.483236643522</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1382,77 +1421,83 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>0.51226096064641624</v>
+        <v>0.74956659886980592</v>
       </c>
       <c r="G22">
-        <v>0.51181571815718152</v>
+        <v>0.74984040951520625</v>
       </c>
       <c r="H22">
-        <v>4.0016267873275273E-2</v>
+        <v>0.51174952451271294</v>
       </c>
       <c r="I22">
-        <v>0.49940302853814789</v>
+        <v>0.48711886734891968</v>
       </c>
       <c r="J22">
-        <v>31.125</v>
+        <v>8.75</v>
       </c>
       <c r="K22">
-        <v>4.125</v>
+        <v>26.5</v>
       </c>
       <c r="L22">
-        <v>90.3125</v>
+        <v>29.25</v>
       </c>
       <c r="M22">
-        <v>11.5625</v>
+        <v>72.625</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45442.658664641203</v>
+        <v>45443.492465717587</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>0.50614095466108044</v>
+        <v>0.74786698514565231</v>
       </c>
       <c r="G23">
-        <v>0.50580548027702488</v>
+        <v>0.74808792532369761</v>
       </c>
       <c r="H23">
-        <v>1.865846038318613E-2</v>
+        <v>0.51079584470497497</v>
       </c>
       <c r="I23">
-        <v>0.49860544878017221</v>
+        <v>0.47040662469608308</v>
       </c>
       <c r="J23">
-        <v>31</v>
+        <v>7.375</v>
       </c>
       <c r="K23">
-        <v>4.25</v>
+        <v>27.875</v>
       </c>
       <c r="L23">
-        <v>90.0625</v>
+        <v>26.9375</v>
       </c>
       <c r="M23">
-        <v>11.8125</v>
+        <v>74.9375</v>
+      </c>
+      <c r="N23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45442.608281967587</v>
+        <v>45442.659747789352</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1461,42 +1506,39 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>0.50094396101635907</v>
+        <v>0.74786698514565231</v>
       </c>
       <c r="G24">
-        <v>0.50105322128851548</v>
+        <v>0.74808792532369761</v>
       </c>
       <c r="H24">
-        <v>6.9581920723405782E-3</v>
+        <v>0.51079584470497497</v>
       </c>
       <c r="I24">
-        <v>0.50734052111410599</v>
+        <v>0.47040662469608308</v>
       </c>
       <c r="J24">
-        <v>31.5</v>
+        <v>7.375</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>27.875</v>
       </c>
       <c r="L24">
-        <v>90.4375</v>
+        <v>26.9375</v>
       </c>
       <c r="M24">
-        <v>15.3125</v>
-      </c>
-      <c r="N24" t="s">
-        <v>17</v>
+        <v>74.9375</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45442.607977187501</v>
+        <v>45442.658460081017</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1505,40 +1547,2116 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>0.74883049491708287</v>
+      </c>
+      <c r="G25">
+        <v>0.7490635350797954</v>
+      </c>
+      <c r="H25">
+        <v>0.51042397892138947</v>
+      </c>
+      <c r="I25">
+        <v>0.48869794122269372</v>
+      </c>
+      <c r="J25">
+        <v>9.125</v>
+      </c>
+      <c r="K25">
+        <v>26.125</v>
+      </c>
+      <c r="L25">
+        <v>26.0625</v>
+      </c>
+      <c r="M25">
+        <v>75.8125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45443.491185370367</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>0.74883049491708287</v>
+      </c>
+      <c r="G26">
+        <v>0.7490635350797954</v>
+      </c>
+      <c r="H26">
+        <v>0.51042397892138947</v>
+      </c>
+      <c r="I26">
+        <v>0.48869794122269372</v>
+      </c>
+      <c r="J26">
+        <v>9.125</v>
+      </c>
+      <c r="K26">
+        <v>26.125</v>
+      </c>
+      <c r="L26">
+        <v>26.0625</v>
+      </c>
+      <c r="M26">
+        <v>75.8125</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45442.608315069447</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>0.74181413156978748</v>
+      </c>
+      <c r="G27">
+        <v>0.7418963585434174</v>
+      </c>
+      <c r="H27">
+        <v>0.49598888130007468</v>
+      </c>
+      <c r="I27">
+        <v>0.45967654986522899</v>
+      </c>
+      <c r="J27">
+        <v>7.25</v>
+      </c>
+      <c r="K27">
+        <v>28.25</v>
+      </c>
+      <c r="L27">
+        <v>26.125</v>
+      </c>
+      <c r="M27">
+        <v>79.625</v>
+      </c>
+      <c r="N27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45443.487082997694</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>0.74181413156978748</v>
+      </c>
+      <c r="G28">
+        <v>0.7418963585434174</v>
+      </c>
+      <c r="H28">
+        <v>0.49598888130007468</v>
+      </c>
+      <c r="I28">
+        <v>0.45967654986522899</v>
+      </c>
+      <c r="J28">
+        <v>7.25</v>
+      </c>
+      <c r="K28">
+        <v>28.25</v>
+      </c>
+      <c r="L28">
+        <v>26.125</v>
+      </c>
+      <c r="M28">
+        <v>79.625</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45443.48710658565</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29">
+        <v>0.7415788374521407</v>
+      </c>
+      <c r="G29">
+        <v>0.74167226890756299</v>
+      </c>
+      <c r="H29">
+        <v>0.49544814525035058</v>
+      </c>
+      <c r="I29">
+        <v>0.47279574722970952</v>
+      </c>
+      <c r="J29">
+        <v>7.625</v>
+      </c>
+      <c r="K29">
+        <v>27.875</v>
+      </c>
+      <c r="L29">
+        <v>26.9375</v>
+      </c>
+      <c r="M29">
+        <v>78.8125</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45442.608331805553</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>0.7415788374521407</v>
+      </c>
+      <c r="G30">
+        <v>0.74167226890756299</v>
+      </c>
+      <c r="H30">
+        <v>0.49544814525035058</v>
+      </c>
+      <c r="I30">
+        <v>0.47279574722970952</v>
+      </c>
+      <c r="J30">
+        <v>7.625</v>
+      </c>
+      <c r="K30">
+        <v>27.875</v>
+      </c>
+      <c r="L30">
+        <v>26.9375</v>
+      </c>
+      <c r="M30">
+        <v>78.8125</v>
+      </c>
+      <c r="N30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45443.484465451387</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
         <v>16</v>
       </c>
-      <c r="F25">
+      <c r="F31">
+        <v>0.73850848753886322</v>
+      </c>
+      <c r="G31">
+        <v>0.73882264378199325</v>
+      </c>
+      <c r="H31">
+        <v>0.49143155943222888</v>
+      </c>
+      <c r="I31">
+        <v>0.47591868430540529</v>
+      </c>
+      <c r="J31">
+        <v>8.25</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>27.375</v>
+      </c>
+      <c r="M31">
+        <v>74.5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45443.49145184028</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>0.73682694066204468</v>
+      </c>
+      <c r="G32">
+        <v>0.7370581150255946</v>
+      </c>
+      <c r="H32">
+        <v>0.48649864439720869</v>
+      </c>
+      <c r="I32">
+        <v>0.48403370589159761</v>
+      </c>
+      <c r="J32">
+        <v>8.8125</v>
+      </c>
+      <c r="K32">
+        <v>26.4375</v>
+      </c>
+      <c r="L32">
+        <v>29.3125</v>
+      </c>
+      <c r="M32">
+        <v>72.5625</v>
+      </c>
+      <c r="N32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45442.658724814813</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>0.73682694066204468</v>
+      </c>
+      <c r="G33">
+        <v>0.7370581150255946</v>
+      </c>
+      <c r="H33">
+        <v>0.48649864439720869</v>
+      </c>
+      <c r="I33">
+        <v>0.48403370589159761</v>
+      </c>
+      <c r="J33">
+        <v>8.8125</v>
+      </c>
+      <c r="K33">
+        <v>26.4375</v>
+      </c>
+      <c r="L33">
+        <v>29.3125</v>
+      </c>
+      <c r="M33">
+        <v>72.5625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45442.658708043979</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>0.73461833323173042</v>
+      </c>
+      <c r="G34">
+        <v>0.73480879253236964</v>
+      </c>
+      <c r="H34">
+        <v>0.48137690061462279</v>
+      </c>
+      <c r="I34">
+        <v>0.47882399164286171</v>
+      </c>
+      <c r="J34">
+        <v>7.5</v>
+      </c>
+      <c r="K34">
+        <v>27.75</v>
+      </c>
+      <c r="L34">
+        <v>30.125</v>
+      </c>
+      <c r="M34">
+        <v>71.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45443.49143238426</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>0.73461833323173042</v>
+      </c>
+      <c r="G35">
+        <v>0.73480879253236964</v>
+      </c>
+      <c r="H35">
+        <v>0.48137690061462279</v>
+      </c>
+      <c r="I35">
+        <v>0.47882399164286171</v>
+      </c>
+      <c r="J35">
+        <v>7.5</v>
+      </c>
+      <c r="K35">
+        <v>27.75</v>
+      </c>
+      <c r="L35">
+        <v>30.125</v>
+      </c>
+      <c r="M35">
+        <v>71.75</v>
+      </c>
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45443.483453645837</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>0.73016334055637766</v>
+      </c>
+      <c r="G36">
+        <v>0.73046070460704604</v>
+      </c>
+      <c r="H36">
+        <v>0.4735077015979684</v>
+      </c>
+      <c r="I36">
+        <v>0.48529531944791121</v>
+      </c>
+      <c r="J36">
+        <v>7.4375</v>
+      </c>
+      <c r="K36">
+        <v>27.8125</v>
+      </c>
+      <c r="L36">
+        <v>27.3125</v>
+      </c>
+      <c r="M36">
+        <v>74.5625</v>
+      </c>
+      <c r="N36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45443.483471585649</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37">
+        <v>0.72256499354359582</v>
+      </c>
+      <c r="G37">
+        <v>0.72285757302017462</v>
+      </c>
+      <c r="H37">
+        <v>0.45729892890505403</v>
+      </c>
+      <c r="I37">
+        <v>0.45629609599615423</v>
+      </c>
+      <c r="J37">
+        <v>6.875</v>
+      </c>
+      <c r="K37">
+        <v>28.375</v>
+      </c>
+      <c r="L37">
+        <v>28.625</v>
+      </c>
+      <c r="M37">
+        <v>73.25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45442.661926006942</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38">
+        <v>0.707813856052671</v>
+      </c>
+      <c r="G38">
+        <v>0.70812405901836795</v>
+      </c>
+      <c r="H38">
+        <v>0.42968989192887402</v>
+      </c>
+      <c r="I38">
+        <v>0.47848281887012228</v>
+      </c>
+      <c r="J38">
+        <v>7.9375</v>
+      </c>
+      <c r="K38">
+        <v>27.3125</v>
+      </c>
+      <c r="L38">
+        <v>34</v>
+      </c>
+      <c r="M38">
+        <v>67.875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45443.479277928243</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39">
+        <v>0.707813856052671</v>
+      </c>
+      <c r="G39">
+        <v>0.70812405901836795</v>
+      </c>
+      <c r="H39">
+        <v>0.42968989192887402</v>
+      </c>
+      <c r="I39">
+        <v>0.47848281887012228</v>
+      </c>
+      <c r="J39">
+        <v>7.9375</v>
+      </c>
+      <c r="K39">
+        <v>27.3125</v>
+      </c>
+      <c r="L39">
+        <v>34</v>
+      </c>
+      <c r="M39">
+        <v>67.875</v>
+      </c>
+      <c r="N39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45443.496353958333</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <v>0.707813856052671</v>
+      </c>
+      <c r="G40">
+        <v>0.70812405901836795</v>
+      </c>
+      <c r="H40">
+        <v>0.42968989192887402</v>
+      </c>
+      <c r="I40">
+        <v>0.47848281887012228</v>
+      </c>
+      <c r="J40">
+        <v>7.9375</v>
+      </c>
+      <c r="K40">
+        <v>27.3125</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+      <c r="M40">
+        <v>67.875</v>
+      </c>
+      <c r="N40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45443.502936677978</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41">
+        <v>0.707813856052671</v>
+      </c>
+      <c r="G41">
+        <v>0.70812405901836795</v>
+      </c>
+      <c r="H41">
+        <v>0.42968989192887402</v>
+      </c>
+      <c r="I41">
+        <v>0.47848281887012228</v>
+      </c>
+      <c r="J41">
+        <v>7.9375</v>
+      </c>
+      <c r="K41">
+        <v>27.3125</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>67.875</v>
+      </c>
+      <c r="N41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45443.487033379628</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <v>0.69336860424643221</v>
+      </c>
+      <c r="G42">
+        <v>0.69343137254901965</v>
+      </c>
+      <c r="H42">
+        <v>0.40025040060374878</v>
+      </c>
+      <c r="I42">
+        <v>0.4980218628331835</v>
+      </c>
+      <c r="J42">
+        <v>11.6875</v>
+      </c>
+      <c r="K42">
+        <v>23.8125</v>
+      </c>
+      <c r="L42">
+        <v>36.4375</v>
+      </c>
+      <c r="M42">
+        <v>69.3125</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45442.608266909723</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>0.69336860424643221</v>
+      </c>
+      <c r="G43">
+        <v>0.69343137254901965</v>
+      </c>
+      <c r="H43">
+        <v>0.40025040060374878</v>
+      </c>
+      <c r="I43">
+        <v>0.4980218628331835</v>
+      </c>
+      <c r="J43">
+        <v>11.6875</v>
+      </c>
+      <c r="K43">
+        <v>23.8125</v>
+      </c>
+      <c r="L43">
+        <v>36.4375</v>
+      </c>
+      <c r="M43">
+        <v>69.3125</v>
+      </c>
+      <c r="N43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45442.658648194447</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44">
+        <v>0.67148569338454123</v>
+      </c>
+      <c r="G44">
+        <v>0.67179464016862389</v>
+      </c>
+      <c r="H44">
+        <v>0.35278654980153268</v>
+      </c>
+      <c r="I44">
+        <v>0.50153419123424947</v>
+      </c>
+      <c r="J44">
+        <v>12.25</v>
+      </c>
+      <c r="K44">
+        <v>23</v>
+      </c>
+      <c r="L44">
+        <v>34.5625</v>
+      </c>
+      <c r="M44">
+        <v>67.3125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45443.491373726851</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45">
+        <v>0.67148569338454123</v>
+      </c>
+      <c r="G45">
+        <v>0.67179464016862389</v>
+      </c>
+      <c r="H45">
+        <v>0.35278654980153268</v>
+      </c>
+      <c r="I45">
+        <v>0.50153419123424947</v>
+      </c>
+      <c r="J45">
+        <v>12.25</v>
+      </c>
+      <c r="K45">
+        <v>23</v>
+      </c>
+      <c r="L45">
+        <v>34.5625</v>
+      </c>
+      <c r="M45">
+        <v>67.3125</v>
+      </c>
+      <c r="N45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45443.483406342602</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46">
+        <v>0.66754859852620341</v>
+      </c>
+      <c r="G46">
+        <v>0.66785606744956338</v>
+      </c>
+      <c r="H46">
+        <v>0.34386633162643548</v>
+      </c>
+      <c r="I46">
+        <v>0.48471554298286967</v>
+      </c>
+      <c r="J46">
+        <v>11.4375</v>
+      </c>
+      <c r="K46">
+        <v>23.8125</v>
+      </c>
+      <c r="L46">
+        <v>35</v>
+      </c>
+      <c r="M46">
+        <v>66.875</v>
+      </c>
+      <c r="N46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45443.502966145279</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47">
+        <v>0.64496130775895355</v>
+      </c>
+      <c r="G47">
+        <v>0.64509485094850949</v>
+      </c>
+      <c r="H47">
+        <v>0.30540645127535798</v>
+      </c>
+      <c r="I47">
+        <v>0.49728665723715232</v>
+      </c>
+      <c r="J47">
+        <v>16.5</v>
+      </c>
+      <c r="K47">
+        <v>18.75</v>
+      </c>
+      <c r="L47">
+        <v>49.4375</v>
+      </c>
+      <c r="M47">
+        <v>52.4375</v>
+      </c>
+      <c r="N47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45442.661957777767</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48">
+        <v>0.64496130775895355</v>
+      </c>
+      <c r="G48">
+        <v>0.64509485094850949</v>
+      </c>
+      <c r="H48">
+        <v>0.30540645127535798</v>
+      </c>
+      <c r="I48">
+        <v>0.49728665723715232</v>
+      </c>
+      <c r="J48">
+        <v>16.5</v>
+      </c>
+      <c r="K48">
+        <v>18.75</v>
+      </c>
+      <c r="L48">
+        <v>49.4375</v>
+      </c>
+      <c r="M48">
+        <v>52.4375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45443.496384652783</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49">
+        <v>0.64496130775895355</v>
+      </c>
+      <c r="G49">
+        <v>0.64509485094850949</v>
+      </c>
+      <c r="H49">
+        <v>0.30540645127535798</v>
+      </c>
+      <c r="I49">
+        <v>0.49728665723715232</v>
+      </c>
+      <c r="J49">
+        <v>16.5</v>
+      </c>
+      <c r="K49">
+        <v>18.75</v>
+      </c>
+      <c r="L49">
+        <v>49.4375</v>
+      </c>
+      <c r="M49">
+        <v>52.4375</v>
+      </c>
+      <c r="N49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45443.47930997685</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50">
+        <v>0.64496130775895355</v>
+      </c>
+      <c r="G50">
+        <v>0.64509485094850949</v>
+      </c>
+      <c r="H50">
+        <v>0.30540645127535798</v>
+      </c>
+      <c r="I50">
+        <v>0.49728665723715232</v>
+      </c>
+      <c r="J50">
+        <v>16.5</v>
+      </c>
+      <c r="K50">
+        <v>18.75</v>
+      </c>
+      <c r="L50">
+        <v>49.4375</v>
+      </c>
+      <c r="M50">
+        <v>52.4375</v>
+      </c>
+      <c r="N50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45443.487054050929</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51">
+        <v>0.64557187608771316</v>
+      </c>
+      <c r="G51">
+        <v>0.64558263305322128</v>
+      </c>
+      <c r="H51">
+        <v>0.29930370689998631</v>
+      </c>
+      <c r="I51">
+        <v>0.5032764300688829</v>
+      </c>
+      <c r="J51">
+        <v>15.375</v>
+      </c>
+      <c r="K51">
+        <v>20.125</v>
+      </c>
+      <c r="L51">
+        <v>46.25</v>
+      </c>
+      <c r="M51">
+        <v>59.5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45442.608287604169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52">
+        <v>0.64557187608771316</v>
+      </c>
+      <c r="G52">
+        <v>0.64558263305322128</v>
+      </c>
+      <c r="H52">
+        <v>0.29930370689998631</v>
+      </c>
+      <c r="I52">
+        <v>0.5032764300688829</v>
+      </c>
+      <c r="J52">
+        <v>15.375</v>
+      </c>
+      <c r="K52">
+        <v>20.125</v>
+      </c>
+      <c r="L52">
+        <v>46.25</v>
+      </c>
+      <c r="M52">
+        <v>59.5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45442.658678402768</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53">
+        <v>0.64418583729122902</v>
+      </c>
+      <c r="G53">
+        <v>0.64424269798253531</v>
+      </c>
+      <c r="H53">
+        <v>0.29502186755525017</v>
+      </c>
+      <c r="I53">
+        <v>0.51847357424818108</v>
+      </c>
+      <c r="J53">
+        <v>16.9375</v>
+      </c>
+      <c r="K53">
+        <v>18.3125</v>
+      </c>
+      <c r="L53">
+        <v>44.8125</v>
+      </c>
+      <c r="M53">
+        <v>57.0625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45443.491401990737</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54">
+        <v>0.64418583729122902</v>
+      </c>
+      <c r="G54">
+        <v>0.64424269798253531</v>
+      </c>
+      <c r="H54">
+        <v>0.29502186755525017</v>
+      </c>
+      <c r="I54">
+        <v>0.51847357424818108</v>
+      </c>
+      <c r="J54">
+        <v>16.9375</v>
+      </c>
+      <c r="K54">
+        <v>18.3125</v>
+      </c>
+      <c r="L54">
+        <v>44.8125</v>
+      </c>
+      <c r="M54">
+        <v>57.0625</v>
+      </c>
+      <c r="N54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45443.48342546296</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55">
+        <v>0.64271192984595149</v>
+      </c>
+      <c r="G55">
+        <v>0.64276422764227648</v>
+      </c>
+      <c r="H55">
+        <v>0.29197909035454439</v>
+      </c>
+      <c r="I55">
+        <v>0.52329150141904945</v>
+      </c>
+      <c r="J55">
+        <v>17.4375</v>
+      </c>
+      <c r="K55">
+        <v>17.8125</v>
+      </c>
+      <c r="L55">
+        <v>44.25</v>
+      </c>
+      <c r="M55">
+        <v>57.625</v>
+      </c>
+      <c r="N55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45442.658325659722</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>0.52829205483602204</v>
+      </c>
+      <c r="G56">
+        <v>0.52819632640770853</v>
+      </c>
+      <c r="H56">
+        <v>5.7018676074543792E-2</v>
+      </c>
+      <c r="I56">
+        <v>0.52035707352247829</v>
+      </c>
+      <c r="J56">
+        <v>19.125</v>
+      </c>
+      <c r="K56">
+        <v>16.125</v>
+      </c>
+      <c r="L56">
+        <v>51.375</v>
+      </c>
+      <c r="M56">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45443.491049178243</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57">
+        <v>0.52829205483602204</v>
+      </c>
+      <c r="G57">
+        <v>0.52819632640770853</v>
+      </c>
+      <c r="H57">
+        <v>5.7018676074543792E-2</v>
+      </c>
+      <c r="I57">
+        <v>0.52035707352247829</v>
+      </c>
+      <c r="J57">
+        <v>19.125</v>
+      </c>
+      <c r="K57">
+        <v>16.125</v>
+      </c>
+      <c r="L57">
+        <v>51.375</v>
+      </c>
+      <c r="M57">
+        <v>50.5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45443.50245917149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58">
+        <v>0.5277831165496385</v>
+      </c>
+      <c r="G58">
+        <v>0.52772357723577223</v>
+      </c>
+      <c r="H58">
+        <v>5.6198568957304247E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.47357480285843712</v>
+      </c>
+      <c r="J58">
+        <v>17.9375</v>
+      </c>
+      <c r="K58">
+        <v>17.3125</v>
+      </c>
+      <c r="L58">
+        <v>55.8125</v>
+      </c>
+      <c r="M58">
+        <v>46.0625</v>
+      </c>
+      <c r="N58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45442.661447708328</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>0.5277831165496385</v>
+      </c>
+      <c r="G59">
+        <v>0.52772357723577223</v>
+      </c>
+      <c r="H59">
+        <v>5.6198568957304247E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.47357480285843712</v>
+      </c>
+      <c r="J59">
+        <v>17.9375</v>
+      </c>
+      <c r="K59">
+        <v>17.3125</v>
+      </c>
+      <c r="L59">
+        <v>55.8125</v>
+      </c>
+      <c r="M59">
+        <v>46.0625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45443.478765659733</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <v>0.5277831165496385</v>
+      </c>
+      <c r="G60">
+        <v>0.52772357723577223</v>
+      </c>
+      <c r="H60">
+        <v>5.6198568957304247E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.47357480285843712</v>
+      </c>
+      <c r="J60">
+        <v>17.9375</v>
+      </c>
+      <c r="K60">
+        <v>17.3125</v>
+      </c>
+      <c r="L60">
+        <v>55.8125</v>
+      </c>
+      <c r="M60">
+        <v>46.0625</v>
+      </c>
+      <c r="N60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45443.495851585649</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <v>0.5277831165496385</v>
+      </c>
+      <c r="G61">
+        <v>0.52772357723577223</v>
+      </c>
+      <c r="H61">
+        <v>5.6198568957304247E-2</v>
+      </c>
+      <c r="I61">
+        <v>0.47357480285843712</v>
+      </c>
+      <c r="J61">
+        <v>17.9375</v>
+      </c>
+      <c r="K61">
+        <v>17.3125</v>
+      </c>
+      <c r="L61">
+        <v>55.8125</v>
+      </c>
+      <c r="M61">
+        <v>46.0625</v>
+      </c>
+      <c r="N61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45443.479295335637</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G62">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H62">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I62">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J62">
+        <v>31.125</v>
+      </c>
+      <c r="K62">
+        <v>4.125</v>
+      </c>
+      <c r="L62">
+        <v>90.3125</v>
+      </c>
+      <c r="M62">
+        <v>11.5625</v>
+      </c>
+      <c r="N62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45442.661942048609</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G63">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H63">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I63">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J63">
+        <v>31.125</v>
+      </c>
+      <c r="K63">
+        <v>4.125</v>
+      </c>
+      <c r="L63">
+        <v>90.3125</v>
+      </c>
+      <c r="M63">
+        <v>11.5625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45443.496370069442</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G64">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H64">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I64">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J64">
+        <v>31.125</v>
+      </c>
+      <c r="K64">
+        <v>4.125</v>
+      </c>
+      <c r="L64">
+        <v>90.3125</v>
+      </c>
+      <c r="M64">
+        <v>11.5625</v>
+      </c>
+      <c r="N64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45443.502952185358</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G65">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H65">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I65">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J65">
+        <v>31.125</v>
+      </c>
+      <c r="K65">
+        <v>4.125</v>
+      </c>
+      <c r="L65">
+        <v>90.3125</v>
+      </c>
+      <c r="M65">
+        <v>11.5625</v>
+      </c>
+      <c r="N65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45442.658664641203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66">
+        <v>0.50614095466108044</v>
+      </c>
+      <c r="G66">
+        <v>0.50580548027702488</v>
+      </c>
+      <c r="H66">
+        <v>1.865846038318613E-2</v>
+      </c>
+      <c r="I66">
+        <v>0.49860544878017221</v>
+      </c>
+      <c r="J66">
+        <v>31</v>
+      </c>
+      <c r="K66">
+        <v>4.25</v>
+      </c>
+      <c r="L66">
+        <v>90.0625</v>
+      </c>
+      <c r="M66">
+        <v>11.8125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45443.491388344897</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>0.50614095466108044</v>
+      </c>
+      <c r="G67">
+        <v>0.50580548027702488</v>
+      </c>
+      <c r="H67">
+        <v>1.865846038318613E-2</v>
+      </c>
+      <c r="I67">
+        <v>0.49860544878017221</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>4.25</v>
+      </c>
+      <c r="L67">
+        <v>90.0625</v>
+      </c>
+      <c r="M67">
+        <v>11.8125</v>
+      </c>
+      <c r="N67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45443.483419999997</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>0.50614095466108044</v>
+      </c>
+      <c r="G68">
+        <v>0.50580548027702488</v>
+      </c>
+      <c r="H68">
+        <v>1.865846038318613E-2</v>
+      </c>
+      <c r="I68">
+        <v>0.49860544878017221</v>
+      </c>
+      <c r="J68">
+        <v>31</v>
+      </c>
+      <c r="K68">
+        <v>4.25</v>
+      </c>
+      <c r="L68">
+        <v>90.0625</v>
+      </c>
+      <c r="M68">
+        <v>11.8125</v>
+      </c>
+      <c r="N68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45442.608281967587</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>0.50094396101635907</v>
+      </c>
+      <c r="G69">
+        <v>0.50105322128851548</v>
+      </c>
+      <c r="H69">
+        <v>6.9581920723405782E-3</v>
+      </c>
+      <c r="I69">
+        <v>0.50734052111410599</v>
+      </c>
+      <c r="J69">
+        <v>31.5</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>90.4375</v>
+      </c>
+      <c r="M69">
+        <v>15.3125</v>
+      </c>
+      <c r="N69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45443.487048333343</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70">
+        <v>0.50094396101635907</v>
+      </c>
+      <c r="G70">
+        <v>0.50105322128851548</v>
+      </c>
+      <c r="H70">
+        <v>6.9581920723405782E-3</v>
+      </c>
+      <c r="I70">
+        <v>0.50734052111410599</v>
+      </c>
+      <c r="J70">
+        <v>31.5</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>90.4375</v>
+      </c>
+      <c r="M70">
+        <v>15.3125</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45443.486732743047</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71">
         <v>0.49933449356073789</v>
       </c>
-      <c r="G25">
+      <c r="G71">
         <v>0.49939495798319322</v>
       </c>
-      <c r="H25">
+      <c r="H71">
         <v>-3.156236961331316E-3</v>
       </c>
-      <c r="I25">
+      <c r="I71">
         <v>0.50679994010182694</v>
       </c>
-      <c r="J25">
+      <c r="J71">
         <v>17.75</v>
       </c>
-      <c r="K25">
+      <c r="K71">
         <v>17.75</v>
       </c>
-      <c r="L25">
+      <c r="L71">
         <v>55.375</v>
       </c>
-      <c r="M25">
+      <c r="M71">
         <v>50.375</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45442.607977187501</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72">
+        <v>0.49933449356073789</v>
+      </c>
+      <c r="G72">
+        <v>0.49939495798319322</v>
+      </c>
+      <c r="H72">
+        <v>-3.156236961331316E-3</v>
+      </c>
+      <c r="I72">
+        <v>0.50679994010182694</v>
+      </c>
+      <c r="J72">
+        <v>17.75</v>
+      </c>
+      <c r="K72">
+        <v>17.75</v>
+      </c>
+      <c r="L72">
+        <v>55.375</v>
+      </c>
+      <c r="M72">
+        <v>50.375</v>
+      </c>
+      <c r="N72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45443.483124293984</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73">
+        <v>0.48625912809912009</v>
+      </c>
+      <c r="G73">
+        <v>0.4862481180367359</v>
+      </c>
+      <c r="H73">
+        <v>-2.7107322744115359E-2</v>
+      </c>
+      <c r="I73">
+        <v>0.51211748065562857</v>
+      </c>
+      <c r="J73">
+        <v>19.5625</v>
+      </c>
+      <c r="K73">
+        <v>15.6875</v>
+      </c>
+      <c r="L73">
+        <v>53.0625</v>
+      </c>
+      <c r="M73">
+        <v>48.8125</v>
+      </c>
+      <c r="N73" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N25">
-    <sortCondition descending="1" ref="H1:H25"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisis\Github\AIRES_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841B25D-0C05-4635-8B3B-C38C58DFC666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FE3B6D-32CA-4789-92EA-9DDD8FDB8038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="35">
   <si>
     <t>Timestamp</t>
   </si>
@@ -64,10 +64,19 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>all</t>
+    <t>uncorr</t>
   </si>
   <si>
     <t>StratifiedKFold</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>Normalizer Normalization</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
   <si>
     <t>CatBoostClassifier</t>
@@ -76,13 +85,13 @@
     <t>StandardScaler standardization</t>
   </si>
   <si>
-    <t>Normalizer Normalization</t>
-  </si>
-  <si>
     <t>MinMaxScaler Normalization</t>
   </si>
   <si>
-    <t>RandomForestClassifier</t>
+    <t>vt</t>
+  </si>
+  <si>
+    <t>Normalizer Normalization, vt threshold = 0.1</t>
   </si>
   <si>
     <t>AP</t>
@@ -98,6 +107,9 @@
   </si>
   <si>
     <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>Normalizer Normalization, vt threshold = 1</t>
   </si>
   <si>
     <t>APB</t>
@@ -480,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection sqref="A1:N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -538,13 +550,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45442.663764988429</v>
+        <v>45443.544567986108</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -553,45 +565,48 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>0.78522052452971702</v>
+        <v>0.7898846529705924</v>
       </c>
       <c r="G2">
-        <v>0.78552243300210778</v>
+        <v>0.79013851249623612</v>
       </c>
       <c r="H2">
-        <v>0.58419929424305095</v>
+        <v>0.59033502909622249</v>
       </c>
       <c r="I2">
-        <v>0.47999653326677211</v>
+        <v>0.50205572658106157</v>
       </c>
       <c r="J2">
-        <v>5.875</v>
+        <v>7.125</v>
       </c>
       <c r="K2">
-        <v>29.375</v>
+        <v>28.125</v>
       </c>
       <c r="L2">
-        <v>25.5625</v>
+        <v>24.25</v>
       </c>
       <c r="M2">
-        <v>76.3125</v>
+        <v>77.625</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45443.4812125463</v>
+        <v>45442.663764988429</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>0.78522052452971702</v>
@@ -617,25 +632,22 @@
       <c r="M3">
         <v>76.3125</v>
       </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45443.504500324882</v>
+        <v>45443.4812125463</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>0.78522052452971702</v>
@@ -662,7 +674,7 @@
         <v>76.3125</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -670,7 +682,7 @@
         <v>45443.498024664354</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -679,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>0.78522052452971702</v>
@@ -706,15 +718,15 @@
         <v>76.3125</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45443.502616135927</v>
+        <v>45443.504500324067</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -723,136 +735,139 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>0.77957633427731676</v>
+        <v>0.78522052452971702</v>
       </c>
       <c r="G6">
-        <v>0.77985847636254146</v>
+        <v>0.78552243300210778</v>
       </c>
       <c r="H6">
-        <v>0.57192349661815411</v>
+        <v>0.58419929424305095</v>
       </c>
       <c r="I6">
-        <v>0.48902228878350018</v>
+        <v>0.47999653326677211</v>
       </c>
       <c r="J6">
-        <v>5.5</v>
+        <v>5.875</v>
       </c>
       <c r="K6">
-        <v>29.75</v>
+        <v>29.375</v>
       </c>
       <c r="L6">
-        <v>24.5625</v>
+        <v>25.5625</v>
       </c>
       <c r="M6">
-        <v>77.3125</v>
+        <v>76.3125</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45442.661602881948</v>
+        <v>45443.546338576387</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>0.77957633427731676</v>
+        <v>0.7837344801532542</v>
       </c>
       <c r="G7">
-        <v>0.77985847636254146</v>
+        <v>0.7840620295091838</v>
       </c>
       <c r="H7">
-        <v>0.57192349661815411</v>
+        <v>0.58326399372632354</v>
       </c>
       <c r="I7">
-        <v>0.48902228878350018</v>
+        <v>0.500673840493293</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>6.3125</v>
       </c>
       <c r="K7">
-        <v>29.75</v>
+        <v>28.9375</v>
       </c>
       <c r="L7">
-        <v>24.5625</v>
+        <v>24.9375</v>
       </c>
       <c r="M7">
-        <v>77.3125</v>
+        <v>76.9375</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45443.4789269213</v>
+        <v>45443.618689420058</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>0.77957633427731676</v>
+        <v>0.78301335801360739</v>
       </c>
       <c r="G8">
-        <v>0.77985847636254146</v>
+        <v>0.78322493224932244</v>
       </c>
       <c r="H8">
-        <v>0.57192349661815411</v>
+        <v>0.57680989989573139</v>
       </c>
       <c r="I8">
-        <v>0.48902228878350018</v>
+        <v>0.49491605883277401</v>
       </c>
       <c r="J8">
-        <v>5.5</v>
+        <v>6.6875</v>
       </c>
       <c r="K8">
-        <v>29.75</v>
+        <v>28.5625</v>
       </c>
       <c r="L8">
-        <v>24.5625</v>
+        <v>26.125</v>
       </c>
       <c r="M8">
-        <v>77.3125</v>
+        <v>75.75</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45443.496021087973</v>
+        <v>45442.661602881948</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>0.77957633427731676</v>
@@ -878,16 +893,13 @@
       <c r="M9">
         <v>77.3125</v>
       </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45443.486852835653</v>
+        <v>45443.4789269213</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -896,119 +908,119 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>0.77957633427731676</v>
+      </c>
+      <c r="G10">
+        <v>0.77985847636254146</v>
+      </c>
+      <c r="H10">
+        <v>0.57192349661815411</v>
+      </c>
+      <c r="I10">
+        <v>0.48902228878350018</v>
+      </c>
+      <c r="J10">
+        <v>5.5</v>
+      </c>
+      <c r="K10">
+        <v>29.75</v>
+      </c>
+      <c r="L10">
+        <v>24.5625</v>
+      </c>
+      <c r="M10">
+        <v>77.3125</v>
+      </c>
+      <c r="N10" t="s">
         <v>20</v>
-      </c>
-      <c r="F10">
-        <v>0.77300104420466409</v>
-      </c>
-      <c r="G10">
-        <v>0.77306722689075635</v>
-      </c>
-      <c r="H10">
-        <v>0.55812693441817518</v>
-      </c>
-      <c r="I10">
-        <v>0.48523809523809519</v>
-      </c>
-      <c r="J10">
-        <v>9.0625</v>
-      </c>
-      <c r="K10">
-        <v>26.4375</v>
-      </c>
-      <c r="L10">
-        <v>26.0625</v>
-      </c>
-      <c r="M10">
-        <v>79.6875</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45442.608092986113</v>
+        <v>45443.496021087973</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0.77957633427731676</v>
+      </c>
+      <c r="G11">
+        <v>0.77985847636254146</v>
+      </c>
+      <c r="H11">
+        <v>0.57192349661815411</v>
+      </c>
+      <c r="I11">
+        <v>0.48902228878350018</v>
+      </c>
+      <c r="J11">
+        <v>5.5</v>
+      </c>
+      <c r="K11">
+        <v>29.75</v>
+      </c>
+      <c r="L11">
+        <v>24.5625</v>
+      </c>
+      <c r="M11">
+        <v>77.3125</v>
+      </c>
+      <c r="N11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>0.77300104420466409</v>
-      </c>
-      <c r="G11">
-        <v>0.77306722689075635</v>
-      </c>
-      <c r="H11">
-        <v>0.55812693441817518</v>
-      </c>
-      <c r="I11">
-        <v>0.48523809523809519</v>
-      </c>
-      <c r="J11">
-        <v>9.0625</v>
-      </c>
-      <c r="K11">
-        <v>26.4375</v>
-      </c>
-      <c r="L11">
-        <v>26.0625</v>
-      </c>
-      <c r="M11">
-        <v>79.6875</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45443.479401932869</v>
+        <v>45443.502616134261</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>0.76188196326407698</v>
+        <v>0.77957633427731676</v>
       </c>
       <c r="G12">
-        <v>0.7621830773863294</v>
+        <v>0.77985847636254146</v>
       </c>
       <c r="H12">
-        <v>0.53730311119986029</v>
+        <v>0.57192349661815411</v>
       </c>
       <c r="I12">
-        <v>0.47783856116704099</v>
+        <v>0.48902228878350018</v>
       </c>
       <c r="J12">
-        <v>6.125</v>
+        <v>5.5</v>
       </c>
       <c r="K12">
-        <v>29.125</v>
+        <v>29.75</v>
       </c>
       <c r="L12">
-        <v>27.125</v>
+        <v>24.5625</v>
       </c>
       <c r="M12">
-        <v>74.75</v>
+        <v>77.3125</v>
       </c>
       <c r="N12" t="s">
         <v>17</v>
@@ -1016,10 +1028,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45443.49645204861</v>
+        <v>45443.620498705881</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1028,86 +1040,86 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>0.76188196326407698</v>
+        <v>0.77244314392700852</v>
       </c>
       <c r="G13">
-        <v>0.7621830773863294</v>
+        <v>0.7727009936766035</v>
       </c>
       <c r="H13">
-        <v>0.53730311119986029</v>
+        <v>0.5603597691713661</v>
       </c>
       <c r="I13">
-        <v>0.47783856116704099</v>
+        <v>0.48923593199656101</v>
       </c>
       <c r="J13">
-        <v>6.125</v>
+        <v>5.8125</v>
       </c>
       <c r="K13">
-        <v>29.125</v>
+        <v>29.4375</v>
       </c>
       <c r="L13">
-        <v>27.125</v>
+        <v>25.375</v>
       </c>
       <c r="M13">
-        <v>74.75</v>
+        <v>76.5</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45443.503028237872</v>
+        <v>45443.486852835653</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>0.76188196326407698</v>
+        <v>0.77300104420466409</v>
       </c>
       <c r="G14">
-        <v>0.7621830773863294</v>
+        <v>0.77306722689075635</v>
       </c>
       <c r="H14">
-        <v>0.53730311119986029</v>
+        <v>0.55812693441817518</v>
       </c>
       <c r="I14">
-        <v>0.47783856116704099</v>
+        <v>0.48523809523809519</v>
       </c>
       <c r="J14">
-        <v>6.125</v>
+        <v>9.0625</v>
       </c>
       <c r="K14">
-        <v>29.125</v>
+        <v>26.4375</v>
       </c>
       <c r="L14">
-        <v>27.125</v>
+        <v>26.0625</v>
       </c>
       <c r="M14">
-        <v>74.75</v>
+        <v>79.6875</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45442.662021747688</v>
+        <v>45442.608092986113</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1116,212 +1128,215 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>0.76188196326407698</v>
+        <v>0.77300104420466409</v>
       </c>
       <c r="G15">
-        <v>0.7621830773863294</v>
+        <v>0.77306722689075635</v>
       </c>
       <c r="H15">
-        <v>0.53730311119986029</v>
+        <v>0.55812693441817518</v>
       </c>
       <c r="I15">
-        <v>0.47783856116704099</v>
+        <v>0.48523809523809519</v>
       </c>
       <c r="J15">
-        <v>6.125</v>
+        <v>9.0625</v>
       </c>
       <c r="K15">
-        <v>29.125</v>
+        <v>26.4375</v>
       </c>
       <c r="L15">
-        <v>27.125</v>
+        <v>26.0625</v>
       </c>
       <c r="M15">
-        <v>74.75</v>
+        <v>79.6875</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45443.488165763891</v>
+        <v>45443.544940821761</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>0.75669892098851377</v>
+        <v>0.76605062042440464</v>
       </c>
       <c r="G16">
-        <v>0.7568039215686273</v>
+        <v>0.76637157482685936</v>
       </c>
       <c r="H16">
-        <v>0.53022655603345947</v>
+        <v>0.54760075816400677</v>
       </c>
       <c r="I16">
-        <v>0.48305181191973651</v>
+        <v>0.47927328026920341</v>
       </c>
       <c r="J16">
-        <v>7.875</v>
+        <v>5.3125</v>
       </c>
       <c r="K16">
-        <v>27.625</v>
+        <v>29.9375</v>
       </c>
       <c r="L16">
-        <v>26.3125</v>
+        <v>24.875</v>
       </c>
       <c r="M16">
-        <v>79.4375</v>
+        <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45442.609507337962</v>
+        <v>45443.544911724537</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>0.75669892098851377</v>
+        <v>0.76064576971604736</v>
       </c>
       <c r="G17">
-        <v>0.7568039215686273</v>
+        <v>0.76098464317976522</v>
       </c>
       <c r="H17">
-        <v>0.53022655603345947</v>
+        <v>0.53757322486693193</v>
       </c>
       <c r="I17">
-        <v>0.48305181191973651</v>
+        <v>0.49540121659224751</v>
       </c>
       <c r="J17">
-        <v>7.875</v>
+        <v>5.625</v>
       </c>
       <c r="K17">
-        <v>27.625</v>
+        <v>29.625</v>
       </c>
       <c r="L17">
-        <v>26.3125</v>
+        <v>27.375</v>
       </c>
       <c r="M17">
-        <v>79.4375</v>
+        <v>74.5</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45443.503006663217</v>
+        <v>45442.662021747688</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>0.75180544702515884</v>
+        <v>0.76188196326407698</v>
       </c>
       <c r="G18">
-        <v>0.75214995483288161</v>
+        <v>0.7621830773863294</v>
       </c>
       <c r="H18">
-        <v>0.52097348390949993</v>
+        <v>0.53730311119986029</v>
       </c>
       <c r="I18">
-        <v>0.47138160874911023</v>
+        <v>0.47783856116704099</v>
       </c>
       <c r="J18">
-        <v>5.25</v>
+        <v>6.125</v>
       </c>
       <c r="K18">
-        <v>30</v>
+        <v>29.125</v>
       </c>
       <c r="L18">
-        <v>30.25</v>
+        <v>27.125</v>
       </c>
       <c r="M18">
-        <v>71.625</v>
-      </c>
-      <c r="N18" t="s">
-        <v>18</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45442.662000162039</v>
+        <v>45443.479401932869</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>0.75180544702515884</v>
+        <v>0.76188196326407698</v>
       </c>
       <c r="G19">
-        <v>0.75214995483288161</v>
+        <v>0.7621830773863294</v>
       </c>
       <c r="H19">
-        <v>0.52097348390949993</v>
+        <v>0.53730311119986029</v>
       </c>
       <c r="I19">
-        <v>0.47138160874911023</v>
+        <v>0.47783856116704099</v>
       </c>
       <c r="J19">
-        <v>5.25</v>
+        <v>6.125</v>
       </c>
       <c r="K19">
-        <v>30</v>
+        <v>29.125</v>
       </c>
       <c r="L19">
-        <v>30.25</v>
+        <v>27.125</v>
       </c>
       <c r="M19">
-        <v>71.625</v>
+        <v>74.75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45443.496427650462</v>
+        <v>45443.49645204861</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1330,75 +1345,75 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20">
-        <v>0.75180544702515884</v>
+        <v>0.76188196326407698</v>
       </c>
       <c r="G20">
-        <v>0.75214995483288161</v>
+        <v>0.7621830773863294</v>
       </c>
       <c r="H20">
-        <v>0.52097348390949993</v>
+        <v>0.53730311119986029</v>
       </c>
       <c r="I20">
-        <v>0.47138160874911023</v>
+        <v>0.47783856116704099</v>
       </c>
       <c r="J20">
-        <v>5.25</v>
+        <v>6.125</v>
       </c>
       <c r="K20">
-        <v>30</v>
+        <v>29.125</v>
       </c>
       <c r="L20">
-        <v>30.25</v>
+        <v>27.125</v>
       </c>
       <c r="M20">
-        <v>71.625</v>
+        <v>74.75</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45443.479363379629</v>
+        <v>45443.503028240739</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>0.75180544702515884</v>
+        <v>0.76188196326407698</v>
       </c>
       <c r="G21">
-        <v>0.75214995483288161</v>
+        <v>0.7621830773863294</v>
       </c>
       <c r="H21">
-        <v>0.52097348390949993</v>
+        <v>0.53730311119986029</v>
       </c>
       <c r="I21">
-        <v>0.47138160874911023</v>
+        <v>0.47783856116704099</v>
       </c>
       <c r="J21">
-        <v>5.25</v>
+        <v>6.125</v>
       </c>
       <c r="K21">
-        <v>30</v>
+        <v>29.125</v>
       </c>
       <c r="L21">
-        <v>30.25</v>
+        <v>27.125</v>
       </c>
       <c r="M21">
-        <v>71.625</v>
+        <v>74.75</v>
       </c>
       <c r="N21" t="s">
         <v>17</v>
@@ -1406,312 +1421,315 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45443.483236643522</v>
+        <v>45443.614396574078</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>0.74956659886980592</v>
+        <v>0.76211522510589802</v>
       </c>
       <c r="G22">
-        <v>0.74984040951520625</v>
+        <v>0.76234869015356821</v>
       </c>
       <c r="H22">
-        <v>0.51174952451271294</v>
+        <v>0.53726926132052355</v>
       </c>
       <c r="I22">
-        <v>0.48711886734891968</v>
+        <v>0.48391380314502042</v>
       </c>
       <c r="J22">
-        <v>8.75</v>
+        <v>7.9375</v>
       </c>
       <c r="K22">
-        <v>26.5</v>
+        <v>27.3125</v>
       </c>
       <c r="L22">
-        <v>29.25</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>72.625</v>
+        <v>72.875</v>
       </c>
       <c r="N22" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45443.492465717587</v>
+        <v>45442.609507337962</v>
       </c>
       <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>0.75669892098851377</v>
+      </c>
+      <c r="G23">
+        <v>0.7568039215686273</v>
+      </c>
+      <c r="H23">
+        <v>0.53022655603345947</v>
+      </c>
+      <c r="I23">
+        <v>0.48305181191973651</v>
+      </c>
+      <c r="J23">
+        <v>7.875</v>
+      </c>
+      <c r="K23">
+        <v>27.625</v>
+      </c>
+      <c r="L23">
+        <v>26.3125</v>
+      </c>
+      <c r="M23">
+        <v>79.4375</v>
+      </c>
+      <c r="N23" t="s">
         <v>26</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23">
-        <v>0.74786698514565231</v>
-      </c>
-      <c r="G23">
-        <v>0.74808792532369761</v>
-      </c>
-      <c r="H23">
-        <v>0.51079584470497497</v>
-      </c>
-      <c r="I23">
-        <v>0.47040662469608308</v>
-      </c>
-      <c r="J23">
-        <v>7.375</v>
-      </c>
-      <c r="K23">
-        <v>27.875</v>
-      </c>
-      <c r="L23">
-        <v>26.9375</v>
-      </c>
-      <c r="M23">
-        <v>74.9375</v>
-      </c>
-      <c r="N23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45442.659747789352</v>
+        <v>45443.488165763891</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>0.74786698514565231</v>
+        <v>0.75669892098851377</v>
       </c>
       <c r="G24">
-        <v>0.74808792532369761</v>
+        <v>0.7568039215686273</v>
       </c>
       <c r="H24">
-        <v>0.51079584470497497</v>
+        <v>0.53022655603345947</v>
       </c>
       <c r="I24">
-        <v>0.47040662469608308</v>
+        <v>0.48305181191973651</v>
       </c>
       <c r="J24">
-        <v>7.375</v>
+        <v>7.875</v>
       </c>
       <c r="K24">
-        <v>27.875</v>
+        <v>27.625</v>
       </c>
       <c r="L24">
-        <v>26.9375</v>
+        <v>26.3125</v>
       </c>
       <c r="M24">
-        <v>74.9375</v>
+        <v>79.4375</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45442.658460081017</v>
+        <v>45443.619059132987</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F25">
-        <v>0.74883049491708287</v>
+        <v>0.75696938796245494</v>
       </c>
       <c r="G25">
-        <v>0.7490635350797954</v>
+        <v>0.7572598614875039</v>
       </c>
       <c r="H25">
-        <v>0.51042397892138947</v>
+        <v>0.52644595999114352</v>
       </c>
       <c r="I25">
-        <v>0.48869794122269372</v>
+        <v>0.48426431298592038</v>
       </c>
       <c r="J25">
-        <v>9.125</v>
+        <v>5.875</v>
       </c>
       <c r="K25">
-        <v>26.125</v>
+        <v>29.375</v>
       </c>
       <c r="L25">
-        <v>26.0625</v>
+        <v>28.4375</v>
       </c>
       <c r="M25">
-        <v>75.8125</v>
+        <v>73.4375</v>
+      </c>
+      <c r="N25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45443.491185370367</v>
+        <v>45442.662000162039</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F26">
-        <v>0.74883049491708287</v>
+        <v>0.75180544702515884</v>
       </c>
       <c r="G26">
-        <v>0.7490635350797954</v>
+        <v>0.75214995483288161</v>
       </c>
       <c r="H26">
-        <v>0.51042397892138947</v>
+        <v>0.52097348390949993</v>
       </c>
       <c r="I26">
-        <v>0.48869794122269372</v>
+        <v>0.47138160874911023</v>
       </c>
       <c r="J26">
-        <v>9.125</v>
+        <v>5.25</v>
       </c>
       <c r="K26">
-        <v>26.125</v>
+        <v>30</v>
       </c>
       <c r="L26">
-        <v>26.0625</v>
+        <v>30.25</v>
       </c>
       <c r="M26">
-        <v>75.8125</v>
-      </c>
-      <c r="N26" t="s">
-        <v>17</v>
+        <v>71.625</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45442.608315069447</v>
+        <v>45443.503006666673</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>0.74181413156978748</v>
+        <v>0.75180544702515884</v>
       </c>
       <c r="G27">
-        <v>0.7418963585434174</v>
+        <v>0.75214995483288161</v>
       </c>
       <c r="H27">
-        <v>0.49598888130007468</v>
+        <v>0.52097348390949993</v>
       </c>
       <c r="I27">
-        <v>0.45967654986522899</v>
+        <v>0.47138160874911023</v>
       </c>
       <c r="J27">
-        <v>7.25</v>
+        <v>5.25</v>
       </c>
       <c r="K27">
-        <v>28.25</v>
+        <v>30</v>
       </c>
       <c r="L27">
-        <v>26.125</v>
+        <v>30.25</v>
       </c>
       <c r="M27">
-        <v>79.625</v>
+        <v>71.625</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45443.487082997694</v>
+        <v>45443.496427650462</v>
       </c>
       <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <v>0.75180544702515884</v>
+      </c>
+      <c r="G28">
+        <v>0.75214995483288161</v>
+      </c>
+      <c r="H28">
+        <v>0.52097348390949993</v>
+      </c>
+      <c r="I28">
+        <v>0.47138160874911023</v>
+      </c>
+      <c r="J28">
+        <v>5.25</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>30.25</v>
+      </c>
+      <c r="M28">
+        <v>71.625</v>
+      </c>
+      <c r="N28" t="s">
         <v>21</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>0.74181413156978748</v>
-      </c>
-      <c r="G28">
-        <v>0.7418963585434174</v>
-      </c>
-      <c r="H28">
-        <v>0.49598888130007468</v>
-      </c>
-      <c r="I28">
-        <v>0.45967654986522899</v>
-      </c>
-      <c r="J28">
-        <v>7.25</v>
-      </c>
-      <c r="K28">
-        <v>28.25</v>
-      </c>
-      <c r="L28">
-        <v>26.125</v>
-      </c>
-      <c r="M28">
-        <v>79.625</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45443.48710658565</v>
+        <v>45443.479363379629</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1720,75 +1738,75 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29">
-        <v>0.7415788374521407</v>
+        <v>0.75180544702515884</v>
       </c>
       <c r="G29">
-        <v>0.74167226890756299</v>
+        <v>0.75214995483288161</v>
       </c>
       <c r="H29">
-        <v>0.49544814525035058</v>
+        <v>0.52097348390949993</v>
       </c>
       <c r="I29">
-        <v>0.47279574722970952</v>
+        <v>0.47138160874911023</v>
       </c>
       <c r="J29">
-        <v>7.625</v>
+        <v>5.25</v>
       </c>
       <c r="K29">
-        <v>27.875</v>
+        <v>30</v>
       </c>
       <c r="L29">
-        <v>26.9375</v>
+        <v>30.25</v>
       </c>
       <c r="M29">
-        <v>78.8125</v>
+        <v>71.625</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45442.608331805553</v>
+        <v>45443.619037778073</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F30">
-        <v>0.7415788374521407</v>
+        <v>0.7525566621037717</v>
       </c>
       <c r="G30">
-        <v>0.74167226890756299</v>
+        <v>0.7528635953026197</v>
       </c>
       <c r="H30">
-        <v>0.49544814525035058</v>
+        <v>0.51937687376606689</v>
       </c>
       <c r="I30">
-        <v>0.47279574722970952</v>
+        <v>0.51281091974743698</v>
       </c>
       <c r="J30">
-        <v>7.625</v>
+        <v>7.3125</v>
       </c>
       <c r="K30">
-        <v>27.875</v>
+        <v>27.9375</v>
       </c>
       <c r="L30">
-        <v>26.9375</v>
+        <v>24.9375</v>
       </c>
       <c r="M30">
-        <v>78.8125</v>
+        <v>76.9375</v>
       </c>
       <c r="N30" t="s">
         <v>23</v>
@@ -1796,54 +1814,54 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45443.484465451387</v>
+        <v>45443.615943657409</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F31">
-        <v>0.73850848753886322</v>
+        <v>0.7515478928477084</v>
       </c>
       <c r="G31">
-        <v>0.73882264378199325</v>
+        <v>0.75175549533273112</v>
       </c>
       <c r="H31">
-        <v>0.49143155943222888</v>
+        <v>0.51752424273599584</v>
       </c>
       <c r="I31">
-        <v>0.47591868430540529</v>
+        <v>0.47008486562942009</v>
       </c>
       <c r="J31">
-        <v>8.25</v>
+        <v>7.9375</v>
       </c>
       <c r="K31">
-        <v>27</v>
+        <v>27.3125</v>
       </c>
       <c r="L31">
-        <v>27.375</v>
+        <v>29.1875</v>
       </c>
       <c r="M31">
-        <v>74.5</v>
+        <v>72.6875</v>
       </c>
       <c r="N31" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45443.49145184028</v>
+        <v>45443.483236643522</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1852,83 +1870,86 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>0.73682694066204468</v>
+        <v>0.74956659886980592</v>
       </c>
       <c r="G32">
-        <v>0.7370581150255946</v>
+        <v>0.74984040951520625</v>
       </c>
       <c r="H32">
-        <v>0.48649864439720869</v>
+        <v>0.51174952451271294</v>
       </c>
       <c r="I32">
-        <v>0.48403370589159761</v>
+        <v>0.48711886734891968</v>
       </c>
       <c r="J32">
-        <v>8.8125</v>
+        <v>8.75</v>
       </c>
       <c r="K32">
-        <v>26.4375</v>
+        <v>26.5</v>
       </c>
       <c r="L32">
-        <v>29.3125</v>
+        <v>29.25</v>
       </c>
       <c r="M32">
-        <v>72.5625</v>
+        <v>72.625</v>
       </c>
       <c r="N32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45442.658724814813</v>
+        <v>45443.492465717587</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F33">
-        <v>0.73682694066204468</v>
+        <v>0.74786698514565231</v>
       </c>
       <c r="G33">
-        <v>0.7370581150255946</v>
+        <v>0.74808792532369761</v>
       </c>
       <c r="H33">
-        <v>0.48649864439720869</v>
+        <v>0.51079584470497497</v>
       </c>
       <c r="I33">
-        <v>0.48403370589159761</v>
+        <v>0.47040662469608308</v>
       </c>
       <c r="J33">
-        <v>8.8125</v>
+        <v>7.375</v>
       </c>
       <c r="K33">
-        <v>26.4375</v>
+        <v>27.875</v>
       </c>
       <c r="L33">
-        <v>29.3125</v>
+        <v>26.9375</v>
       </c>
       <c r="M33">
-        <v>72.5625</v>
+        <v>74.9375</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45442.658708043979</v>
+        <v>45442.659747789352</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1937,39 +1958,39 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F34">
-        <v>0.73461833323173042</v>
+        <v>0.74786698514565231</v>
       </c>
       <c r="G34">
-        <v>0.73480879253236964</v>
+        <v>0.74808792532369761</v>
       </c>
       <c r="H34">
-        <v>0.48137690061462279</v>
+        <v>0.51079584470497497</v>
       </c>
       <c r="I34">
-        <v>0.47882399164286171</v>
+        <v>0.47040662469608308</v>
       </c>
       <c r="J34">
-        <v>7.5</v>
+        <v>7.375</v>
       </c>
       <c r="K34">
-        <v>27.75</v>
+        <v>27.875</v>
       </c>
       <c r="L34">
-        <v>30.125</v>
+        <v>26.9375</v>
       </c>
       <c r="M34">
-        <v>71.75</v>
+        <v>74.9375</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45443.49143238426</v>
+        <v>45443.491185370367</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1978,174 +1999,174 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F35">
-        <v>0.73461833323173042</v>
+        <v>0.74883049491708287</v>
       </c>
       <c r="G35">
-        <v>0.73480879253236964</v>
+        <v>0.7490635350797954</v>
       </c>
       <c r="H35">
-        <v>0.48137690061462279</v>
+        <v>0.51042397892138947</v>
       </c>
       <c r="I35">
-        <v>0.47882399164286171</v>
+        <v>0.48869794122269372</v>
       </c>
       <c r="J35">
-        <v>7.5</v>
+        <v>9.125</v>
       </c>
       <c r="K35">
-        <v>27.75</v>
+        <v>26.125</v>
       </c>
       <c r="L35">
-        <v>30.125</v>
+        <v>26.0625</v>
       </c>
       <c r="M35">
-        <v>71.75</v>
+        <v>75.8125</v>
       </c>
       <c r="N35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45443.483453645837</v>
+        <v>45442.658460081017</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>0.73016334055637766</v>
+        <v>0.74883049491708287</v>
       </c>
       <c r="G36">
-        <v>0.73046070460704604</v>
+        <v>0.7490635350797954</v>
       </c>
       <c r="H36">
-        <v>0.4735077015979684</v>
+        <v>0.51042397892138947</v>
       </c>
       <c r="I36">
-        <v>0.48529531944791121</v>
+        <v>0.48869794122269372</v>
       </c>
       <c r="J36">
-        <v>7.4375</v>
+        <v>9.125</v>
       </c>
       <c r="K36">
-        <v>27.8125</v>
+        <v>26.125</v>
       </c>
       <c r="L36">
-        <v>27.3125</v>
+        <v>26.0625</v>
       </c>
       <c r="M36">
-        <v>74.5625</v>
-      </c>
-      <c r="N36" t="s">
-        <v>17</v>
+        <v>75.8125</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45443.483471585649</v>
+        <v>45442.608315069447</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>0.72256499354359582</v>
+        <v>0.74181413156978748</v>
       </c>
       <c r="G37">
-        <v>0.72285757302017462</v>
+        <v>0.7418963585434174</v>
       </c>
       <c r="H37">
-        <v>0.45729892890505403</v>
+        <v>0.49598888130007468</v>
       </c>
       <c r="I37">
-        <v>0.45629609599615423</v>
+        <v>0.45967654986522899</v>
       </c>
       <c r="J37">
-        <v>6.875</v>
+        <v>7.25</v>
       </c>
       <c r="K37">
-        <v>28.375</v>
+        <v>28.25</v>
       </c>
       <c r="L37">
-        <v>28.625</v>
+        <v>26.125</v>
       </c>
       <c r="M37">
-        <v>73.25</v>
+        <v>79.625</v>
       </c>
       <c r="N37" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45442.661926006942</v>
+        <v>45443.487082997694</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38">
-        <v>0.707813856052671</v>
+        <v>0.74181413156978748</v>
       </c>
       <c r="G38">
-        <v>0.70812405901836795</v>
+        <v>0.7418963585434174</v>
       </c>
       <c r="H38">
-        <v>0.42968989192887402</v>
+        <v>0.49598888130007468</v>
       </c>
       <c r="I38">
-        <v>0.47848281887012228</v>
+        <v>0.45967654986522899</v>
       </c>
       <c r="J38">
-        <v>7.9375</v>
+        <v>7.25</v>
       </c>
       <c r="K38">
-        <v>27.3125</v>
+        <v>28.25</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>26.125</v>
       </c>
       <c r="M38">
-        <v>67.875</v>
+        <v>79.625</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45443.479277928243</v>
+        <v>45442.608331805553</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -2154,42 +2175,42 @@
         <v>27</v>
       </c>
       <c r="F39">
-        <v>0.707813856052671</v>
+        <v>0.7415788374521407</v>
       </c>
       <c r="G39">
-        <v>0.70812405901836795</v>
+        <v>0.74167226890756299</v>
       </c>
       <c r="H39">
-        <v>0.42968989192887402</v>
+        <v>0.49544814525035058</v>
       </c>
       <c r="I39">
-        <v>0.47848281887012228</v>
+        <v>0.47279574722970952</v>
       </c>
       <c r="J39">
-        <v>7.9375</v>
+        <v>7.625</v>
       </c>
       <c r="K39">
-        <v>27.3125</v>
+        <v>27.875</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>26.9375</v>
       </c>
       <c r="M39">
-        <v>67.875</v>
+        <v>78.8125</v>
       </c>
       <c r="N39" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45443.496353958333</v>
+        <v>45443.48710658565</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -2198,42 +2219,42 @@
         <v>27</v>
       </c>
       <c r="F40">
-        <v>0.707813856052671</v>
+        <v>0.7415788374521407</v>
       </c>
       <c r="G40">
-        <v>0.70812405901836795</v>
+        <v>0.74167226890756299</v>
       </c>
       <c r="H40">
-        <v>0.42968989192887402</v>
+        <v>0.49544814525035058</v>
       </c>
       <c r="I40">
-        <v>0.47848281887012228</v>
+        <v>0.47279574722970952</v>
       </c>
       <c r="J40">
-        <v>7.9375</v>
+        <v>7.625</v>
       </c>
       <c r="K40">
-        <v>27.3125</v>
+        <v>27.875</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>26.9375</v>
       </c>
       <c r="M40">
-        <v>67.875</v>
+        <v>78.8125</v>
       </c>
       <c r="N40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45443.502936677978</v>
+        <v>45443.614696504628</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -2242,39 +2263,39 @@
         <v>27</v>
       </c>
       <c r="F41">
-        <v>0.707813856052671</v>
+        <v>0.73999898397075314</v>
       </c>
       <c r="G41">
-        <v>0.70812405901836795</v>
+        <v>0.74022583559168909</v>
       </c>
       <c r="H41">
-        <v>0.42968989192887402</v>
+        <v>0.49240932429833201</v>
       </c>
       <c r="I41">
-        <v>0.47848281887012228</v>
+        <v>0.48897486387294192</v>
       </c>
       <c r="J41">
-        <v>7.9375</v>
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>27.3125</v>
+        <v>25.25</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>28.8125</v>
       </c>
       <c r="M41">
-        <v>67.875</v>
+        <v>73.0625</v>
       </c>
       <c r="N41" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45443.487033379628</v>
+        <v>45443.484465451387</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2283,89 +2304,89 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>0.73850848753886322</v>
+      </c>
+      <c r="G42">
+        <v>0.73882264378199325</v>
+      </c>
+      <c r="H42">
+        <v>0.49143155943222888</v>
+      </c>
+      <c r="I42">
+        <v>0.47591868430540529</v>
+      </c>
+      <c r="J42">
+        <v>8.25</v>
+      </c>
+      <c r="K42">
         <v>27</v>
       </c>
-      <c r="F42">
-        <v>0.69336860424643221</v>
-      </c>
-      <c r="G42">
-        <v>0.69343137254901965</v>
-      </c>
-      <c r="H42">
-        <v>0.40025040060374878</v>
-      </c>
-      <c r="I42">
-        <v>0.4980218628331835</v>
-      </c>
-      <c r="J42">
-        <v>11.6875</v>
-      </c>
-      <c r="K42">
-        <v>23.8125</v>
-      </c>
       <c r="L42">
-        <v>36.4375</v>
+        <v>27.375</v>
       </c>
       <c r="M42">
-        <v>69.3125</v>
+        <v>74.5</v>
       </c>
       <c r="N42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45442.608266909723</v>
+        <v>45443.61467855324</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F43">
-        <v>0.69336860424643221</v>
+        <v>0.73682847394254436</v>
       </c>
       <c r="G43">
-        <v>0.69343137254901965</v>
+        <v>0.737043059319482</v>
       </c>
       <c r="H43">
-        <v>0.40025040060374878</v>
+        <v>0.48714112927500891</v>
       </c>
       <c r="I43">
-        <v>0.4980218628331835</v>
+        <v>0.50071978626434066</v>
       </c>
       <c r="J43">
-        <v>11.6875</v>
+        <v>8.9375</v>
       </c>
       <c r="K43">
-        <v>23.8125</v>
+        <v>26.3125</v>
       </c>
       <c r="L43">
-        <v>36.4375</v>
+        <v>28.8125</v>
       </c>
       <c r="M43">
-        <v>69.3125</v>
+        <v>73.0625</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45442.658648194447</v>
+        <v>45443.49145184028</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -2374,39 +2395,42 @@
         <v>27</v>
       </c>
       <c r="F44">
-        <v>0.67148569338454123</v>
+        <v>0.73682694066204468</v>
       </c>
       <c r="G44">
-        <v>0.67179464016862389</v>
+        <v>0.7370581150255946</v>
       </c>
       <c r="H44">
-        <v>0.35278654980153268</v>
+        <v>0.48649864439720869</v>
       </c>
       <c r="I44">
-        <v>0.50153419123424947</v>
+        <v>0.48403370589159761</v>
       </c>
       <c r="J44">
-        <v>12.25</v>
+        <v>8.8125</v>
       </c>
       <c r="K44">
-        <v>23</v>
+        <v>26.4375</v>
       </c>
       <c r="L44">
-        <v>34.5625</v>
+        <v>29.3125</v>
       </c>
       <c r="M44">
-        <v>67.3125</v>
+        <v>72.5625</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45443.491373726851</v>
+        <v>45442.658724814813</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -2415,39 +2439,36 @@
         <v>27</v>
       </c>
       <c r="F45">
-        <v>0.67148569338454123</v>
+        <v>0.73682694066204468</v>
       </c>
       <c r="G45">
-        <v>0.67179464016862389</v>
+        <v>0.7370581150255946</v>
       </c>
       <c r="H45">
-        <v>0.35278654980153268</v>
+        <v>0.48649864439720869</v>
       </c>
       <c r="I45">
-        <v>0.50153419123424947</v>
+        <v>0.48403370589159761</v>
       </c>
       <c r="J45">
-        <v>12.25</v>
+        <v>8.8125</v>
       </c>
       <c r="K45">
-        <v>23</v>
+        <v>26.4375</v>
       </c>
       <c r="L45">
-        <v>34.5625</v>
+        <v>29.3125</v>
       </c>
       <c r="M45">
-        <v>67.3125</v>
-      </c>
-      <c r="N45" t="s">
-        <v>17</v>
+        <v>72.5625</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45443.483406342602</v>
+        <v>45443.49143238426</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2456,45 +2477,45 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F46">
-        <v>0.66754859852620341</v>
+        <v>0.73461833323173042</v>
       </c>
       <c r="G46">
-        <v>0.66785606744956338</v>
+        <v>0.73480879253236964</v>
       </c>
       <c r="H46">
-        <v>0.34386633162643548</v>
+        <v>0.48137690061462279</v>
       </c>
       <c r="I46">
-        <v>0.48471554298286967</v>
+        <v>0.47882399164286171</v>
       </c>
       <c r="J46">
-        <v>11.4375</v>
+        <v>7.5</v>
       </c>
       <c r="K46">
-        <v>23.8125</v>
+        <v>27.75</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>30.125</v>
       </c>
       <c r="M46">
-        <v>66.875</v>
+        <v>71.75</v>
       </c>
       <c r="N46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45443.502966145279</v>
+        <v>45442.658708043979</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -2503,42 +2524,39 @@
         <v>28</v>
       </c>
       <c r="F47">
-        <v>0.64496130775895355</v>
+        <v>0.73461833323173042</v>
       </c>
       <c r="G47">
-        <v>0.64509485094850949</v>
+        <v>0.73480879253236964</v>
       </c>
       <c r="H47">
-        <v>0.30540645127535798</v>
+        <v>0.48137690061462279</v>
       </c>
       <c r="I47">
-        <v>0.49728665723715232</v>
+        <v>0.47882399164286171</v>
       </c>
       <c r="J47">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="K47">
-        <v>18.75</v>
+        <v>27.75</v>
       </c>
       <c r="L47">
-        <v>49.4375</v>
+        <v>30.125</v>
       </c>
       <c r="M47">
-        <v>52.4375</v>
-      </c>
-      <c r="N47" t="s">
-        <v>18</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45442.661957777767</v>
+        <v>45443.483453645837</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2547,113 +2565,116 @@
         <v>28</v>
       </c>
       <c r="F48">
-        <v>0.64496130775895355</v>
+        <v>0.73016334055637766</v>
       </c>
       <c r="G48">
-        <v>0.64509485094850949</v>
+        <v>0.73046070460704604</v>
       </c>
       <c r="H48">
-        <v>0.30540645127535798</v>
+        <v>0.4735077015979684</v>
       </c>
       <c r="I48">
-        <v>0.49728665723715232</v>
+        <v>0.48529531944791121</v>
       </c>
       <c r="J48">
-        <v>16.5</v>
+        <v>7.4375</v>
       </c>
       <c r="K48">
-        <v>18.75</v>
+        <v>27.8125</v>
       </c>
       <c r="L48">
-        <v>49.4375</v>
+        <v>27.3125</v>
       </c>
       <c r="M48">
-        <v>52.4375</v>
+        <v>74.5625</v>
+      </c>
+      <c r="N48" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45443.496384652783</v>
+        <v>45443.483471585649</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F49">
-        <v>0.64496130775895355</v>
+        <v>0.72256499354359582</v>
       </c>
       <c r="G49">
-        <v>0.64509485094850949</v>
+        <v>0.72285757302017462</v>
       </c>
       <c r="H49">
-        <v>0.30540645127535798</v>
+        <v>0.45729892890505403</v>
       </c>
       <c r="I49">
-        <v>0.49728665723715232</v>
+        <v>0.45629609599615423</v>
       </c>
       <c r="J49">
-        <v>16.5</v>
+        <v>6.875</v>
       </c>
       <c r="K49">
-        <v>18.75</v>
+        <v>28.375</v>
       </c>
       <c r="L49">
-        <v>49.4375</v>
+        <v>28.625</v>
       </c>
       <c r="M49">
-        <v>52.4375</v>
+        <v>73.25</v>
       </c>
       <c r="N49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45443.47930997685</v>
+        <v>45443.544832361113</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F50">
-        <v>0.64496130775895355</v>
+        <v>0.70882410316945699</v>
       </c>
       <c r="G50">
-        <v>0.64509485094850949</v>
+        <v>0.70917494730502872</v>
       </c>
       <c r="H50">
-        <v>0.30540645127535798</v>
+        <v>0.43221898136806142</v>
       </c>
       <c r="I50">
-        <v>0.49728665723715232</v>
+        <v>0.49145630529439499</v>
       </c>
       <c r="J50">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="K50">
-        <v>18.75</v>
+        <v>25.25</v>
       </c>
       <c r="L50">
-        <v>49.4375</v>
+        <v>33.25</v>
       </c>
       <c r="M50">
-        <v>52.4375</v>
+        <v>68.625</v>
       </c>
       <c r="N50" t="s">
         <v>17</v>
@@ -2661,139 +2682,139 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45443.487054050929</v>
+        <v>45442.661926006942</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F51">
-        <v>0.64557187608771316</v>
+        <v>0.707813856052671</v>
       </c>
       <c r="G51">
-        <v>0.64558263305322128</v>
+        <v>0.70812405901836795</v>
       </c>
       <c r="H51">
-        <v>0.29930370689998631</v>
+        <v>0.42968989192887402</v>
       </c>
       <c r="I51">
-        <v>0.5032764300688829</v>
+        <v>0.47848281887012228</v>
       </c>
       <c r="J51">
-        <v>15.375</v>
+        <v>7.9375</v>
       </c>
       <c r="K51">
-        <v>20.125</v>
+        <v>27.3125</v>
       </c>
       <c r="L51">
-        <v>46.25</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>59.5</v>
-      </c>
-      <c r="N51" t="s">
-        <v>22</v>
+        <v>67.875</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45442.608287604169</v>
+        <v>45443.50293667824</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F52">
-        <v>0.64557187608771316</v>
+        <v>0.707813856052671</v>
       </c>
       <c r="G52">
-        <v>0.64558263305322128</v>
+        <v>0.70812405901836795</v>
       </c>
       <c r="H52">
-        <v>0.29930370689998631</v>
+        <v>0.42968989192887402</v>
       </c>
       <c r="I52">
-        <v>0.5032764300688829</v>
+        <v>0.47848281887012228</v>
       </c>
       <c r="J52">
-        <v>15.375</v>
+        <v>7.9375</v>
       </c>
       <c r="K52">
-        <v>20.125</v>
+        <v>27.3125</v>
       </c>
       <c r="L52">
-        <v>46.25</v>
+        <v>34</v>
       </c>
       <c r="M52">
-        <v>59.5</v>
+        <v>67.875</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45442.658678402768</v>
+        <v>45443.496353958333</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F53">
-        <v>0.64418583729122902</v>
+        <v>0.707813856052671</v>
       </c>
       <c r="G53">
-        <v>0.64424269798253531</v>
+        <v>0.70812405901836795</v>
       </c>
       <c r="H53">
-        <v>0.29502186755525017</v>
+        <v>0.42968989192887402</v>
       </c>
       <c r="I53">
-        <v>0.51847357424818108</v>
+        <v>0.47848281887012228</v>
       </c>
       <c r="J53">
-        <v>16.9375</v>
+        <v>7.9375</v>
       </c>
       <c r="K53">
-        <v>18.3125</v>
+        <v>27.3125</v>
       </c>
       <c r="L53">
-        <v>44.8125</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>57.0625</v>
+        <v>67.875</v>
+      </c>
+      <c r="N53" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45443.491401990737</v>
+        <v>45443.479277928243</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2802,86 +2823,86 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F54">
-        <v>0.64418583729122902</v>
+        <v>0.707813856052671</v>
       </c>
       <c r="G54">
-        <v>0.64424269798253531</v>
+        <v>0.70812405901836795</v>
       </c>
       <c r="H54">
-        <v>0.29502186755525017</v>
+        <v>0.42968989192887402</v>
       </c>
       <c r="I54">
-        <v>0.51847357424818108</v>
+        <v>0.47848281887012228</v>
       </c>
       <c r="J54">
-        <v>16.9375</v>
+        <v>7.9375</v>
       </c>
       <c r="K54">
-        <v>18.3125</v>
+        <v>27.3125</v>
       </c>
       <c r="L54">
-        <v>44.8125</v>
+        <v>34</v>
       </c>
       <c r="M54">
-        <v>57.0625</v>
+        <v>67.875</v>
       </c>
       <c r="N54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45443.48342546296</v>
+        <v>45443.618967734197</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F55">
-        <v>0.64271192984595149</v>
+        <v>0.69407582903368226</v>
       </c>
       <c r="G55">
-        <v>0.64276422764227648</v>
+        <v>0.69432700993676599</v>
       </c>
       <c r="H55">
-        <v>0.29197909035454439</v>
+        <v>0.40092365743610198</v>
       </c>
       <c r="I55">
-        <v>0.52329150141904945</v>
+        <v>0.47294838727570238</v>
       </c>
       <c r="J55">
-        <v>17.4375</v>
+        <v>8.6875</v>
       </c>
       <c r="K55">
-        <v>17.8125</v>
+        <v>26.5625</v>
       </c>
       <c r="L55">
-        <v>44.25</v>
+        <v>37.5</v>
       </c>
       <c r="M55">
-        <v>57.625</v>
+        <v>64.375</v>
       </c>
       <c r="N55" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45442.658325659722</v>
+        <v>45442.608266909723</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2890,39 +2911,42 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F56">
-        <v>0.52829205483602204</v>
+        <v>0.69336860424643221</v>
       </c>
       <c r="G56">
-        <v>0.52819632640770853</v>
+        <v>0.69343137254901965</v>
       </c>
       <c r="H56">
-        <v>5.7018676074543792E-2</v>
+        <v>0.40025040060374878</v>
       </c>
       <c r="I56">
-        <v>0.52035707352247829</v>
+        <v>0.4980218628331835</v>
       </c>
       <c r="J56">
-        <v>19.125</v>
+        <v>11.6875</v>
       </c>
       <c r="K56">
-        <v>16.125</v>
+        <v>23.8125</v>
       </c>
       <c r="L56">
-        <v>51.375</v>
+        <v>36.4375</v>
       </c>
       <c r="M56">
-        <v>50.5</v>
+        <v>69.3125</v>
+      </c>
+      <c r="N56" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45443.491049178243</v>
+        <v>45443.487033379628</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2931,86 +2955,86 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F57">
-        <v>0.52829205483602204</v>
+        <v>0.69336860424643221</v>
       </c>
       <c r="G57">
-        <v>0.52819632640770853</v>
+        <v>0.69343137254901965</v>
       </c>
       <c r="H57">
-        <v>5.7018676074543792E-2</v>
+        <v>0.40025040060374878</v>
       </c>
       <c r="I57">
-        <v>0.52035707352247829</v>
+        <v>0.4980218628331835</v>
       </c>
       <c r="J57">
-        <v>19.125</v>
+        <v>11.6875</v>
       </c>
       <c r="K57">
-        <v>16.125</v>
+        <v>23.8125</v>
       </c>
       <c r="L57">
-        <v>51.375</v>
+        <v>36.4375</v>
       </c>
       <c r="M57">
-        <v>50.5</v>
+        <v>69.3125</v>
       </c>
       <c r="N57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45443.50245917149</v>
+        <v>45443.614615115737</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58">
+        <v>0.67760848883199132</v>
+      </c>
+      <c r="G58">
+        <v>0.67778380006022276</v>
+      </c>
+      <c r="H58">
+        <v>0.3653348816831451</v>
+      </c>
+      <c r="I58">
+        <v>0.46775549823889961</v>
+      </c>
+      <c r="J58">
+        <v>9.875</v>
+      </c>
+      <c r="K58">
+        <v>25.375</v>
+      </c>
+      <c r="L58">
+        <v>40.1875</v>
+      </c>
+      <c r="M58">
+        <v>61.6875</v>
+      </c>
+      <c r="N58" t="s">
         <v>29</v>
-      </c>
-      <c r="F58">
-        <v>0.5277831165496385</v>
-      </c>
-      <c r="G58">
-        <v>0.52772357723577223</v>
-      </c>
-      <c r="H58">
-        <v>5.6198568957304247E-2</v>
-      </c>
-      <c r="I58">
-        <v>0.47357480285843712</v>
-      </c>
-      <c r="J58">
-        <v>17.9375</v>
-      </c>
-      <c r="K58">
-        <v>17.3125</v>
-      </c>
-      <c r="L58">
-        <v>55.8125</v>
-      </c>
-      <c r="M58">
-        <v>46.0625</v>
-      </c>
-      <c r="N58" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45442.661447708328</v>
+        <v>45442.658648194447</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3019,39 +3043,39 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F59">
-        <v>0.5277831165496385</v>
+        <v>0.67148569338454123</v>
       </c>
       <c r="G59">
-        <v>0.52772357723577223</v>
+        <v>0.67179464016862389</v>
       </c>
       <c r="H59">
-        <v>5.6198568957304247E-2</v>
+        <v>0.35278654980153268</v>
       </c>
       <c r="I59">
-        <v>0.47357480285843712</v>
+        <v>0.50153419123424947</v>
       </c>
       <c r="J59">
-        <v>17.9375</v>
+        <v>12.25</v>
       </c>
       <c r="K59">
-        <v>17.3125</v>
+        <v>23</v>
       </c>
       <c r="L59">
-        <v>55.8125</v>
+        <v>34.5625</v>
       </c>
       <c r="M59">
-        <v>46.0625</v>
+        <v>67.3125</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45443.478765659733</v>
+        <v>45443.491373726851</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3060,130 +3084,130 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F60">
-        <v>0.5277831165496385</v>
+        <v>0.67148569338454123</v>
       </c>
       <c r="G60">
-        <v>0.52772357723577223</v>
+        <v>0.67179464016862389</v>
       </c>
       <c r="H60">
-        <v>5.6198568957304247E-2</v>
+        <v>0.35278654980153268</v>
       </c>
       <c r="I60">
-        <v>0.47357480285843712</v>
+        <v>0.50153419123424947</v>
       </c>
       <c r="J60">
-        <v>17.9375</v>
+        <v>12.25</v>
       </c>
       <c r="K60">
-        <v>17.3125</v>
+        <v>23</v>
       </c>
       <c r="L60">
-        <v>55.8125</v>
+        <v>34.5625</v>
       </c>
       <c r="M60">
-        <v>46.0625</v>
+        <v>67.3125</v>
       </c>
       <c r="N60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45443.495851585649</v>
+        <v>45443.483406342602</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F61">
-        <v>0.5277831165496385</v>
+        <v>0.66754859852620341</v>
       </c>
       <c r="G61">
-        <v>0.52772357723577223</v>
+        <v>0.66785606744956338</v>
       </c>
       <c r="H61">
-        <v>5.6198568957304247E-2</v>
+        <v>0.34386633162643548</v>
       </c>
       <c r="I61">
-        <v>0.47357480285843712</v>
+        <v>0.48471554298286967</v>
       </c>
       <c r="J61">
-        <v>17.9375</v>
+        <v>11.4375</v>
       </c>
       <c r="K61">
-        <v>17.3125</v>
+        <v>23.8125</v>
       </c>
       <c r="L61">
-        <v>55.8125</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>46.0625</v>
+        <v>66.875</v>
       </c>
       <c r="N61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45443.479295335637</v>
+        <v>45443.61899759619</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F62">
-        <v>0.51226096064641624</v>
+        <v>0.64496130775895355</v>
       </c>
       <c r="G62">
-        <v>0.51181571815718152</v>
+        <v>0.64509485094850949</v>
       </c>
       <c r="H62">
-        <v>4.0016267873275273E-2</v>
+        <v>0.30540645127535798</v>
       </c>
       <c r="I62">
-        <v>0.49940302853814789</v>
+        <v>0.49728665723715232</v>
       </c>
       <c r="J62">
-        <v>31.125</v>
+        <v>16.5</v>
       </c>
       <c r="K62">
-        <v>4.125</v>
+        <v>18.75</v>
       </c>
       <c r="L62">
-        <v>90.3125</v>
+        <v>49.4375</v>
       </c>
       <c r="M62">
-        <v>11.5625</v>
+        <v>52.4375</v>
       </c>
       <c r="N62" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45442.661942048609</v>
+        <v>45442.661957777767</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3192,245 +3216,248 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F63">
-        <v>0.51226096064641624</v>
+        <v>0.64496130775895355</v>
       </c>
       <c r="G63">
-        <v>0.51181571815718152</v>
+        <v>0.64509485094850949</v>
       </c>
       <c r="H63">
-        <v>4.0016267873275273E-2</v>
+        <v>0.30540645127535798</v>
       </c>
       <c r="I63">
-        <v>0.49940302853814789</v>
+        <v>0.49728665723715232</v>
       </c>
       <c r="J63">
-        <v>31.125</v>
+        <v>16.5</v>
       </c>
       <c r="K63">
-        <v>4.125</v>
+        <v>18.75</v>
       </c>
       <c r="L63">
-        <v>90.3125</v>
+        <v>49.4375</v>
       </c>
       <c r="M63">
-        <v>11.5625</v>
+        <v>52.4375</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45443.496370069442</v>
+        <v>45443.47930997685</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F64">
-        <v>0.51226096064641624</v>
+        <v>0.64496130775895355</v>
       </c>
       <c r="G64">
-        <v>0.51181571815718152</v>
+        <v>0.64509485094850949</v>
       </c>
       <c r="H64">
-        <v>4.0016267873275273E-2</v>
+        <v>0.30540645127535798</v>
       </c>
       <c r="I64">
-        <v>0.49940302853814789</v>
+        <v>0.49728665723715232</v>
       </c>
       <c r="J64">
-        <v>31.125</v>
+        <v>16.5</v>
       </c>
       <c r="K64">
-        <v>4.125</v>
+        <v>18.75</v>
       </c>
       <c r="L64">
-        <v>90.3125</v>
+        <v>49.4375</v>
       </c>
       <c r="M64">
-        <v>11.5625</v>
+        <v>52.4375</v>
       </c>
       <c r="N64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45443.502952185358</v>
+        <v>45443.496384652783</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F65">
-        <v>0.51226096064641624</v>
+        <v>0.64496130775895355</v>
       </c>
       <c r="G65">
-        <v>0.51181571815718152</v>
+        <v>0.64509485094850949</v>
       </c>
       <c r="H65">
-        <v>4.0016267873275273E-2</v>
+        <v>0.30540645127535798</v>
       </c>
       <c r="I65">
-        <v>0.49940302853814789</v>
+        <v>0.49728665723715232</v>
       </c>
       <c r="J65">
-        <v>31.125</v>
+        <v>16.5</v>
       </c>
       <c r="K65">
-        <v>4.125</v>
+        <v>18.75</v>
       </c>
       <c r="L65">
-        <v>90.3125</v>
+        <v>49.4375</v>
       </c>
       <c r="M65">
-        <v>11.5625</v>
+        <v>52.4375</v>
       </c>
       <c r="N65" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45442.658664641203</v>
+        <v>45443.502966145832</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F66">
-        <v>0.50614095466108044</v>
+        <v>0.64496130775895355</v>
       </c>
       <c r="G66">
-        <v>0.50580548027702488</v>
+        <v>0.64509485094850949</v>
       </c>
       <c r="H66">
-        <v>1.865846038318613E-2</v>
+        <v>0.30540645127535798</v>
       </c>
       <c r="I66">
-        <v>0.49860544878017221</v>
+        <v>0.49728665723715232</v>
       </c>
       <c r="J66">
-        <v>31</v>
+        <v>16.5</v>
       </c>
       <c r="K66">
-        <v>4.25</v>
+        <v>18.75</v>
       </c>
       <c r="L66">
-        <v>90.0625</v>
+        <v>49.4375</v>
       </c>
       <c r="M66">
-        <v>11.8125</v>
+        <v>52.4375</v>
+      </c>
+      <c r="N66" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45443.491388344897</v>
+        <v>45443.614645034722</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F67">
-        <v>0.50614095466108044</v>
+        <v>0.64496130775895355</v>
       </c>
       <c r="G67">
-        <v>0.50580548027702488</v>
+        <v>0.64509485094850949</v>
       </c>
       <c r="H67">
-        <v>1.865846038318613E-2</v>
+        <v>0.30540645127535798</v>
       </c>
       <c r="I67">
-        <v>0.49860544878017221</v>
+        <v>0.49728665723715232</v>
       </c>
       <c r="J67">
-        <v>31</v>
+        <v>16.5</v>
       </c>
       <c r="K67">
-        <v>4.25</v>
+        <v>18.75</v>
       </c>
       <c r="L67">
-        <v>90.0625</v>
+        <v>49.4375</v>
       </c>
       <c r="M67">
-        <v>11.8125</v>
+        <v>52.4375</v>
       </c>
       <c r="N67" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45443.483419999997</v>
+        <v>45443.54486480324</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F68">
-        <v>0.50614095466108044</v>
+        <v>0.64471287937146582</v>
       </c>
       <c r="G68">
-        <v>0.50580548027702488</v>
+        <v>0.64484492622704015</v>
       </c>
       <c r="H68">
-        <v>1.865846038318613E-2</v>
+        <v>0.30485869923255882</v>
       </c>
       <c r="I68">
-        <v>0.49860544878017221</v>
+        <v>0.498267049394015</v>
       </c>
       <c r="J68">
-        <v>31</v>
+        <v>16.5</v>
       </c>
       <c r="K68">
-        <v>4.25</v>
+        <v>18.75</v>
       </c>
       <c r="L68">
-        <v>90.0625</v>
+        <v>48.9375</v>
       </c>
       <c r="M68">
-        <v>11.8125</v>
+        <v>52.9375</v>
       </c>
       <c r="N68" t="s">
         <v>17</v>
@@ -3438,10 +3465,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45442.608281967587</v>
+        <v>45442.608287604169</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3450,42 +3477,42 @@
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F69">
-        <v>0.50094396101635907</v>
+        <v>0.64557187608771316</v>
       </c>
       <c r="G69">
-        <v>0.50105322128851548</v>
+        <v>0.64558263305322128</v>
       </c>
       <c r="H69">
-        <v>6.9581920723405782E-3</v>
+        <v>0.29930370689998631</v>
       </c>
       <c r="I69">
-        <v>0.50734052111410599</v>
+        <v>0.5032764300688829</v>
       </c>
       <c r="J69">
-        <v>31.5</v>
+        <v>15.375</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>20.125</v>
       </c>
       <c r="L69">
-        <v>90.4375</v>
+        <v>46.25</v>
       </c>
       <c r="M69">
-        <v>15.3125</v>
+        <v>59.5</v>
       </c>
       <c r="N69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45443.487048333343</v>
+        <v>45443.487054050929</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3494,42 +3521,42 @@
         <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F70">
-        <v>0.50094396101635907</v>
+        <v>0.64557187608771316</v>
       </c>
       <c r="G70">
-        <v>0.50105322128851548</v>
+        <v>0.64558263305322128</v>
       </c>
       <c r="H70">
-        <v>6.9581920723405782E-3</v>
+        <v>0.29930370689998631</v>
       </c>
       <c r="I70">
-        <v>0.50734052111410599</v>
+        <v>0.5032764300688829</v>
       </c>
       <c r="J70">
-        <v>31.5</v>
+        <v>15.375</v>
       </c>
       <c r="K70">
-        <v>4</v>
+        <v>20.125</v>
       </c>
       <c r="L70">
-        <v>90.4375</v>
+        <v>46.25</v>
       </c>
       <c r="M70">
-        <v>15.3125</v>
+        <v>59.5</v>
       </c>
       <c r="N70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45443.486732743047</v>
+        <v>45443.491401990737</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3538,42 +3565,42 @@
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F71">
-        <v>0.49933449356073789</v>
+        <v>0.64418583729122902</v>
       </c>
       <c r="G71">
-        <v>0.49939495798319322</v>
+        <v>0.64424269798253531</v>
       </c>
       <c r="H71">
-        <v>-3.156236961331316E-3</v>
+        <v>0.29502186755525017</v>
       </c>
       <c r="I71">
-        <v>0.50679994010182694</v>
+        <v>0.51847357424818108</v>
       </c>
       <c r="J71">
-        <v>17.75</v>
+        <v>16.9375</v>
       </c>
       <c r="K71">
-        <v>17.75</v>
+        <v>18.3125</v>
       </c>
       <c r="L71">
-        <v>55.375</v>
+        <v>44.8125</v>
       </c>
       <c r="M71">
-        <v>50.375</v>
+        <v>57.0625</v>
       </c>
       <c r="N71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45442.607977187501</v>
+        <v>45442.658678402768</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3582,42 +3609,39 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F72">
-        <v>0.49933449356073789</v>
+        <v>0.64418583729122902</v>
       </c>
       <c r="G72">
-        <v>0.49939495798319322</v>
+        <v>0.64424269798253531</v>
       </c>
       <c r="H72">
-        <v>-3.156236961331316E-3</v>
+        <v>0.29502186755525017</v>
       </c>
       <c r="I72">
-        <v>0.50679994010182694</v>
+        <v>0.51847357424818108</v>
       </c>
       <c r="J72">
-        <v>17.75</v>
+        <v>16.9375</v>
       </c>
       <c r="K72">
-        <v>17.75</v>
+        <v>18.3125</v>
       </c>
       <c r="L72">
-        <v>55.375</v>
+        <v>44.8125</v>
       </c>
       <c r="M72">
-        <v>50.375</v>
-      </c>
-      <c r="N72" t="s">
-        <v>23</v>
+        <v>57.0625</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45443.483124293984</v>
+        <v>45443.48342546296</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3626,34 +3650,1078 @@
         <v>15</v>
       </c>
       <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>0.64271192984595149</v>
+      </c>
+      <c r="G73">
+        <v>0.64276422764227648</v>
+      </c>
+      <c r="H73">
+        <v>0.29197909035454439</v>
+      </c>
+      <c r="I73">
+        <v>0.52329150141904945</v>
+      </c>
+      <c r="J73">
+        <v>17.4375</v>
+      </c>
+      <c r="K73">
+        <v>17.8125</v>
+      </c>
+      <c r="L73">
+        <v>44.25</v>
+      </c>
+      <c r="M73">
+        <v>57.625</v>
+      </c>
+      <c r="N73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45443.614261828698</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74">
+        <v>0.53489816615957575</v>
+      </c>
+      <c r="G74">
+        <v>0.53484191508581758</v>
+      </c>
+      <c r="H74">
+        <v>7.0920254325252355E-2</v>
+      </c>
+      <c r="I74">
+        <v>0.46500337428700861</v>
+      </c>
+      <c r="J74">
+        <v>16.625</v>
+      </c>
+      <c r="K74">
+        <v>18.625</v>
+      </c>
+      <c r="L74">
+        <v>55.5625</v>
+      </c>
+      <c r="M74">
+        <v>46.3125</v>
+      </c>
+      <c r="N74" t="s">
         <v>29</v>
       </c>
-      <c r="F73">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45443.61852793039</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75">
+        <v>0.53171701553416351</v>
+      </c>
+      <c r="G75">
+        <v>0.53168021680216793</v>
+      </c>
+      <c r="H75">
+        <v>6.4445612334358165E-2</v>
+      </c>
+      <c r="I75">
+        <v>0.47619385047748469</v>
+      </c>
+      <c r="J75">
+        <v>17.1875</v>
+      </c>
+      <c r="K75">
+        <v>18.0625</v>
+      </c>
+      <c r="L75">
+        <v>55.375</v>
+      </c>
+      <c r="M75">
+        <v>46.5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45443.491049178243</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76">
+        <v>0.52829205483602204</v>
+      </c>
+      <c r="G76">
+        <v>0.52819632640770853</v>
+      </c>
+      <c r="H76">
+        <v>5.7018676074543792E-2</v>
+      </c>
+      <c r="I76">
+        <v>0.52035707352247829</v>
+      </c>
+      <c r="J76">
+        <v>19.125</v>
+      </c>
+      <c r="K76">
+        <v>16.125</v>
+      </c>
+      <c r="L76">
+        <v>51.375</v>
+      </c>
+      <c r="M76">
+        <v>50.5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45442.658325659722</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77">
+        <v>0.52829205483602204</v>
+      </c>
+      <c r="G77">
+        <v>0.52819632640770853</v>
+      </c>
+      <c r="H77">
+        <v>5.7018676074543792E-2</v>
+      </c>
+      <c r="I77">
+        <v>0.52035707352247829</v>
+      </c>
+      <c r="J77">
+        <v>19.125</v>
+      </c>
+      <c r="K77">
+        <v>16.125</v>
+      </c>
+      <c r="L77">
+        <v>51.375</v>
+      </c>
+      <c r="M77">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45443.502459166673</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78">
+        <v>0.5277831165496385</v>
+      </c>
+      <c r="G78">
+        <v>0.52772357723577223</v>
+      </c>
+      <c r="H78">
+        <v>5.6198568957304247E-2</v>
+      </c>
+      <c r="I78">
+        <v>0.47357480285843712</v>
+      </c>
+      <c r="J78">
+        <v>17.9375</v>
+      </c>
+      <c r="K78">
+        <v>17.3125</v>
+      </c>
+      <c r="L78">
+        <v>55.8125</v>
+      </c>
+      <c r="M78">
+        <v>46.0625</v>
+      </c>
+      <c r="N78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45442.661447708328</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79">
+        <v>0.5277831165496385</v>
+      </c>
+      <c r="G79">
+        <v>0.52772357723577223</v>
+      </c>
+      <c r="H79">
+        <v>5.6198568957304247E-2</v>
+      </c>
+      <c r="I79">
+        <v>0.47357480285843712</v>
+      </c>
+      <c r="J79">
+        <v>17.9375</v>
+      </c>
+      <c r="K79">
+        <v>17.3125</v>
+      </c>
+      <c r="L79">
+        <v>55.8125</v>
+      </c>
+      <c r="M79">
+        <v>46.0625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45443.495851585649</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80">
+        <v>0.5277831165496385</v>
+      </c>
+      <c r="G80">
+        <v>0.52772357723577223</v>
+      </c>
+      <c r="H80">
+        <v>5.6198568957304247E-2</v>
+      </c>
+      <c r="I80">
+        <v>0.47357480285843712</v>
+      </c>
+      <c r="J80">
+        <v>17.9375</v>
+      </c>
+      <c r="K80">
+        <v>17.3125</v>
+      </c>
+      <c r="L80">
+        <v>55.8125</v>
+      </c>
+      <c r="M80">
+        <v>46.0625</v>
+      </c>
+      <c r="N80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45443.478765659733</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81">
+        <v>0.5277831165496385</v>
+      </c>
+      <c r="G81">
+        <v>0.52772357723577223</v>
+      </c>
+      <c r="H81">
+        <v>5.6198568957304247E-2</v>
+      </c>
+      <c r="I81">
+        <v>0.47357480285843712</v>
+      </c>
+      <c r="J81">
+        <v>17.9375</v>
+      </c>
+      <c r="K81">
+        <v>17.3125</v>
+      </c>
+      <c r="L81">
+        <v>55.8125</v>
+      </c>
+      <c r="M81">
+        <v>46.0625</v>
+      </c>
+      <c r="N81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45443.614631307872</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82">
+        <v>0.51250635941942235</v>
+      </c>
+      <c r="G82">
+        <v>0.51205962059620602</v>
+      </c>
+      <c r="H82">
+        <v>4.072926354404563E-2</v>
+      </c>
+      <c r="I82">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J82">
+        <v>31.125</v>
+      </c>
+      <c r="K82">
+        <v>4.125</v>
+      </c>
+      <c r="L82">
+        <v>90.3125</v>
+      </c>
+      <c r="M82">
+        <v>11.5625</v>
+      </c>
+      <c r="N82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45443.544849502323</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83">
+        <v>0.51250635941942235</v>
+      </c>
+      <c r="G83">
+        <v>0.51205962059620602</v>
+      </c>
+      <c r="H83">
+        <v>4.072926354404563E-2</v>
+      </c>
+      <c r="I83">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J83">
+        <v>31.125</v>
+      </c>
+      <c r="K83">
+        <v>4.125</v>
+      </c>
+      <c r="L83">
+        <v>90.3125</v>
+      </c>
+      <c r="M83">
+        <v>11.5625</v>
+      </c>
+      <c r="N83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45443.502952187497</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G84">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H84">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I84">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J84">
+        <v>31.125</v>
+      </c>
+      <c r="K84">
+        <v>4.125</v>
+      </c>
+      <c r="L84">
+        <v>90.3125</v>
+      </c>
+      <c r="M84">
+        <v>11.5625</v>
+      </c>
+      <c r="N84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45443.496370069442</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G85">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H85">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I85">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J85">
+        <v>31.125</v>
+      </c>
+      <c r="K85">
+        <v>4.125</v>
+      </c>
+      <c r="L85">
+        <v>90.3125</v>
+      </c>
+      <c r="M85">
+        <v>11.5625</v>
+      </c>
+      <c r="N85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45442.661942048609</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G86">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H86">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I86">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J86">
+        <v>31.125</v>
+      </c>
+      <c r="K86">
+        <v>4.125</v>
+      </c>
+      <c r="L86">
+        <v>90.3125</v>
+      </c>
+      <c r="M86">
+        <v>11.5625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45443.479295335637</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G87">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H87">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I87">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J87">
+        <v>31.125</v>
+      </c>
+      <c r="K87">
+        <v>4.125</v>
+      </c>
+      <c r="L87">
+        <v>90.3125</v>
+      </c>
+      <c r="M87">
+        <v>11.5625</v>
+      </c>
+      <c r="N87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45443.618982740103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88">
+        <v>0.51226096064641624</v>
+      </c>
+      <c r="G88">
+        <v>0.51181571815718152</v>
+      </c>
+      <c r="H88">
+        <v>4.0016267873275273E-2</v>
+      </c>
+      <c r="I88">
+        <v>0.49940302853814789</v>
+      </c>
+      <c r="J88">
+        <v>31.125</v>
+      </c>
+      <c r="K88">
+        <v>4.125</v>
+      </c>
+      <c r="L88">
+        <v>90.3125</v>
+      </c>
+      <c r="M88">
+        <v>11.5625</v>
+      </c>
+      <c r="N88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45443.544431365743</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89">
+        <v>0.51864291744485269</v>
+      </c>
+      <c r="G89">
+        <v>0.51858777476663653</v>
+      </c>
+      <c r="H89">
+        <v>3.7662064090930612E-2</v>
+      </c>
+      <c r="I89">
+        <v>0.48727584102948113</v>
+      </c>
+      <c r="J89">
+        <v>17.6875</v>
+      </c>
+      <c r="K89">
+        <v>17.5625</v>
+      </c>
+      <c r="L89">
+        <v>51.9375</v>
+      </c>
+      <c r="M89">
+        <v>49.9375</v>
+      </c>
+      <c r="N89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>45443.491388344897</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90">
+        <v>0.50614095466108044</v>
+      </c>
+      <c r="G90">
+        <v>0.50580548027702488</v>
+      </c>
+      <c r="H90">
+        <v>1.865846038318613E-2</v>
+      </c>
+      <c r="I90">
+        <v>0.49860544878017221</v>
+      </c>
+      <c r="J90">
+        <v>31</v>
+      </c>
+      <c r="K90">
+        <v>4.25</v>
+      </c>
+      <c r="L90">
+        <v>90.0625</v>
+      </c>
+      <c r="M90">
+        <v>11.8125</v>
+      </c>
+      <c r="N90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45443.483419999997</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91">
+        <v>0.50614095466108044</v>
+      </c>
+      <c r="G91">
+        <v>0.50580548027702488</v>
+      </c>
+      <c r="H91">
+        <v>1.865846038318613E-2</v>
+      </c>
+      <c r="I91">
+        <v>0.49860544878017221</v>
+      </c>
+      <c r="J91">
+        <v>31</v>
+      </c>
+      <c r="K91">
+        <v>4.25</v>
+      </c>
+      <c r="L91">
+        <v>90.0625</v>
+      </c>
+      <c r="M91">
+        <v>11.8125</v>
+      </c>
+      <c r="N91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45442.658664641203</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92">
+        <v>0.50614095466108044</v>
+      </c>
+      <c r="G92">
+        <v>0.50580548027702488</v>
+      </c>
+      <c r="H92">
+        <v>1.865846038318613E-2</v>
+      </c>
+      <c r="I92">
+        <v>0.49860544878017221</v>
+      </c>
+      <c r="J92">
+        <v>31</v>
+      </c>
+      <c r="K92">
+        <v>4.25</v>
+      </c>
+      <c r="L92">
+        <v>90.0625</v>
+      </c>
+      <c r="M92">
+        <v>11.8125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45443.487048333343</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93">
+        <v>0.50094396101635907</v>
+      </c>
+      <c r="G93">
+        <v>0.50105322128851548</v>
+      </c>
+      <c r="H93">
+        <v>6.9581920723405782E-3</v>
+      </c>
+      <c r="I93">
+        <v>0.50734052111410599</v>
+      </c>
+      <c r="J93">
+        <v>31.5</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>90.4375</v>
+      </c>
+      <c r="M93">
+        <v>15.3125</v>
+      </c>
+      <c r="N93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45442.608281967587</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94">
+        <v>0.50094396101635907</v>
+      </c>
+      <c r="G94">
+        <v>0.50105322128851548</v>
+      </c>
+      <c r="H94">
+        <v>6.9581920723405782E-3</v>
+      </c>
+      <c r="I94">
+        <v>0.50734052111410599</v>
+      </c>
+      <c r="J94">
+        <v>31.5</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>90.4375</v>
+      </c>
+      <c r="M94">
+        <v>15.3125</v>
+      </c>
+      <c r="N94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45442.607977187501</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95">
+        <v>0.49933449356073789</v>
+      </c>
+      <c r="G95">
+        <v>0.49939495798319322</v>
+      </c>
+      <c r="H95">
+        <v>-3.156236961331316E-3</v>
+      </c>
+      <c r="I95">
+        <v>0.50679994010182694</v>
+      </c>
+      <c r="J95">
+        <v>17.75</v>
+      </c>
+      <c r="K95">
+        <v>17.75</v>
+      </c>
+      <c r="L95">
+        <v>55.375</v>
+      </c>
+      <c r="M95">
+        <v>50.375</v>
+      </c>
+      <c r="N95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45443.486732743047</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96">
+        <v>0.49933449356073789</v>
+      </c>
+      <c r="G96">
+        <v>0.49939495798319322</v>
+      </c>
+      <c r="H96">
+        <v>-3.156236961331316E-3</v>
+      </c>
+      <c r="I96">
+        <v>0.50679994010182694</v>
+      </c>
+      <c r="J96">
+        <v>17.75</v>
+      </c>
+      <c r="K96">
+        <v>17.75</v>
+      </c>
+      <c r="L96">
+        <v>55.375</v>
+      </c>
+      <c r="M96">
+        <v>50.375</v>
+      </c>
+      <c r="N96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45443.483124293984</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97">
         <v>0.48625912809912009</v>
       </c>
-      <c r="G73">
+      <c r="G97">
         <v>0.4862481180367359</v>
       </c>
-      <c r="H73">
+      <c r="H97">
         <v>-2.7107322744115359E-2</v>
       </c>
-      <c r="I73">
+      <c r="I97">
         <v>0.51211748065562857</v>
       </c>
-      <c r="J73">
+      <c r="J97">
         <v>19.5625</v>
       </c>
-      <c r="K73">
+      <c r="K97">
         <v>15.6875</v>
       </c>
-      <c r="L73">
+      <c r="L97">
         <v>53.0625</v>
       </c>
-      <c r="M73">
+      <c r="M97">
         <v>48.8125</v>
       </c>
-      <c r="N73" t="s">
-        <v>17</v>
+      <c r="N97" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisis\Documents\GitHub\AIRES_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33715364-9267-41AD-A67B-FC0ECAF94723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8374DA33-5320-475B-8F7E-8C9B28295E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="24320" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,7 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,12 +506,13 @@
   <dimension ref="A1:N247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
     <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="23.36328125" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" customWidth="1"/>
@@ -584,7 +585,7 @@
         <v>0.81692863595302612</v>
       </c>
       <c r="H2">
-        <v>0.64383772870208156</v>
+        <v>0.643837728702082</v>
       </c>
       <c r="I2">
         <v>0.54625569699827126</v>
